--- a/mimij/mimij/AnalisiSintactico/Tabla.xlsx
+++ b/mimij/mimij/AnalisiSintactico/Tabla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derly\Documents\Universidad\Sexto ciclo\Compis\Proyecto\Proyecto-Compiladores\mimij\mimij\bin\Debug\AnalisiSintactico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derly\Documents\Universidad\Sexto ciclo\Compis\Proyecto\Proyecto-Compiladores\mimij\mimij\AnalisiSintactico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB227ED-18CC-4A91-B1B0-7FE4BF45739F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AE6D8A-1316-4BD7-855F-9CE10AE83862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{924D8882-C0E7-4292-B0BC-53CB839BE7C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{924D8882-C0E7-4292-B0BC-53CB839BE7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="272">
   <si>
     <t>State</t>
   </si>
@@ -600,24 +600,12 @@
     <t>r54</t>
   </si>
   <si>
-    <t>s119</t>
-  </si>
-  <si>
     <t>r56</t>
   </si>
   <si>
-    <t>s120</t>
-  </si>
-  <si>
     <t>r58</t>
   </si>
   <si>
-    <t>s121</t>
-  </si>
-  <si>
-    <t>s122</t>
-  </si>
-  <si>
     <t>r61</t>
   </si>
   <si>
@@ -627,12 +615,6 @@
     <t>r63</t>
   </si>
   <si>
-    <t>s124</t>
-  </si>
-  <si>
-    <t>s125</t>
-  </si>
-  <si>
     <t>r66</t>
   </si>
   <si>
@@ -642,9 +624,6 @@
     <t>r69</t>
   </si>
   <si>
-    <t>s129</t>
-  </si>
-  <si>
     <t>r72</t>
   </si>
   <si>
@@ -823,6 +802,54 @@
   </si>
   <si>
     <t>r44</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>s119 / r54</t>
+  </si>
+  <si>
+    <t>s120 / r56</t>
+  </si>
+  <si>
+    <t>s121 / r58</t>
+  </si>
+  <si>
+    <t>s122 / r58</t>
+  </si>
+  <si>
+    <t>s124 / r63</t>
+  </si>
+  <si>
+    <t>s125 / r63</t>
+  </si>
+  <si>
+    <t>s129 / r69</t>
+  </si>
+  <si>
+    <t>s129 / r67</t>
+  </si>
+  <si>
+    <t>s129 / r68</t>
+  </si>
+  <si>
+    <t>s119 / r53</t>
+  </si>
+  <si>
+    <t>s120 / r55</t>
+  </si>
+  <si>
+    <t>s121 / r57</t>
+  </si>
+  <si>
+    <t>s122 / r57</t>
+  </si>
+  <si>
+    <t>s124 / r62</t>
+  </si>
+  <si>
+    <t>s125 / r62</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1207,7 @@
   <dimension ref="A1:BV176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="Q179" sqref="Q179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,8 +1437,8 @@
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>74</v>
@@ -9154,20 +9181,32 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="AC88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE88" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="AF88" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
+      <c r="AG88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH88" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="AI88" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AJ88" s="1"/>
+      <c r="AJ88" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="AK88" s="1" t="s">
         <v>187</v>
       </c>
@@ -9226,16 +9265,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -9249,7 +9288,7 @@
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -9262,42 +9301,52 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
       <c r="AB89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="AD89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE89" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="AF89" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG89" s="1"/>
-      <c r="AH89" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="AG89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH89" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="AI89" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ89" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="AJ89" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="AK89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AO89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ89" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AR89" s="1"/>
       <c r="AS89" s="1"/>
@@ -9336,16 +9385,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -9359,7 +9408,7 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
@@ -9372,46 +9421,52 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG90" s="1"/>
-      <c r="AH90" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="AG90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH90" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="AI90" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ90" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="AJ90" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="AK90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AN90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AO90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AP90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AQ90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AR90" s="1"/>
       <c r="AS90" s="1"/>
@@ -9450,16 +9505,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -9473,7 +9528,7 @@
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -9486,46 +9541,52 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG91" s="1"/>
-      <c r="AH91" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="AG91" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH91" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="AI91" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AJ91" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="AJ91" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="AK91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AL91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AM91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AN91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AO91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AP91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AQ91" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AR91" s="1"/>
       <c r="AS91" s="1"/>
@@ -9564,16 +9625,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -9587,7 +9648,7 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -9600,50 +9661,52 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AE92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="AH92" s="1" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="AI92" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ92" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="AJ92" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="AK92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AL92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AM92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AN92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AO92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AP92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AQ92" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AR92" s="1"/>
       <c r="AS92" s="1"/>
@@ -9682,16 +9745,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -9705,7 +9768,7 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -9718,50 +9781,52 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
       <c r="AB93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AG93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AH93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AI93" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ93" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="AJ93" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="AK93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AL93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AM93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AN93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AO93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AP93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AQ93" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AR93" s="1"/>
       <c r="AS93" s="1"/>
@@ -9800,7 +9865,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
@@ -9900,7 +9965,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
@@ -10000,16 +10065,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -10023,7 +10088,7 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -10036,52 +10101,52 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
       <c r="AB96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AH96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AL96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AM96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AN96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AO96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AP96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AQ96" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AR96" s="1"/>
       <c r="AS96" s="1"/>
@@ -10120,16 +10185,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -10143,7 +10208,7 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
@@ -10156,52 +10221,52 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
       <c r="AB97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AF97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AG97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AH97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AI97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AJ97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AK97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AL97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AM97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AN97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AO97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AP97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AQ97" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AR97" s="1"/>
       <c r="AS97" s="1"/>
@@ -10358,16 +10423,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -10381,7 +10446,7 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -10394,52 +10459,52 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
       <c r="AB99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AC99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AD99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AE99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AF99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AG99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AH99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AI99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AJ99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AK99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AL99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AM99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AN99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AO99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AP99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AQ99" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AR99" s="1"/>
       <c r="AS99" s="1"/>
@@ -10480,7 +10545,7 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -10558,16 +10623,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -10581,7 +10646,7 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -10594,52 +10659,52 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
       <c r="AB101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AH101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AI101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AJ101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AK101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AL101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AM101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AN101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AO101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AP101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AQ101" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AR101" s="1"/>
       <c r="AS101" s="1"/>
@@ -10678,16 +10743,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -10701,7 +10766,7 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -10714,52 +10779,52 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
       <c r="AB102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AD102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AE102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AF102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AG102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AH102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AI102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AJ102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AK102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AL102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AM102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AN102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AO102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AP102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AQ102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AR102" s="1"/>
       <c r="AS102" s="1"/>
@@ -10798,16 +10863,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -10821,7 +10886,7 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
@@ -10834,52 +10899,52 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
       <c r="AB103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AD103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AE103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AF103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AG103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AH103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AI103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AJ103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AK103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AM103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AN103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AO103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AP103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AQ103" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AR103" s="1"/>
       <c r="AS103" s="1"/>
@@ -10918,16 +10983,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -10941,7 +11006,7 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -10954,52 +11019,52 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
       <c r="AB104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AC104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AE104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AF104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AG104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AH104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AI104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AJ104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AK104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AL104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AM104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AN104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AO104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AP104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AQ104" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AR104" s="1"/>
       <c r="AS104" s="1"/>
@@ -11038,16 +11103,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -11061,7 +11126,7 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
@@ -11074,52 +11139,52 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
       <c r="AB105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AC105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AD105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AF105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AG105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AH105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AI105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AJ105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AK105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AL105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AM105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AN105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AO105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AP105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AQ105" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AR105" s="1"/>
       <c r="AS105" s="1"/>
@@ -11158,7 +11223,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -11385,7 +11450,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -11462,35 +11527,35 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O109" s="1"/>
       <c r="P109" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
@@ -11556,7 +11621,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -11565,24 +11630,24 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O110" s="1"/>
       <c r="P110" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
@@ -11648,69 +11713,69 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O111" s="1"/>
       <c r="P111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="X111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Y111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Z111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
@@ -11718,37 +11783,37 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AG111" s="1"/>
       <c r="AH111" s="1"/>
       <c r="AI111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AJ111" s="1"/>
       <c r="AK111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AL111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AM111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AN111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AO111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AP111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AQ111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AR111" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AS111" s="1"/>
       <c r="AT111" s="1"/>
@@ -11793,7 +11858,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -11866,22 +11931,22 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -11894,25 +11959,25 @@
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="W113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="X113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Y113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Z113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
@@ -11920,34 +11985,34 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
       <c r="AF113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AG113" s="1"/>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AJ113" s="1"/>
       <c r="AK113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AL113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AM113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AN113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AO113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AP113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AQ113" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AR113" s="1"/>
       <c r="AS113" s="1"/>
@@ -12340,22 +12405,22 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -12368,25 +12433,25 @@
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="W117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="X117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="Y117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="Z117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
@@ -12394,34 +12459,34 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
       <c r="AF117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
       <c r="AI117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AJ117" s="1"/>
       <c r="AK117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AL117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AM117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AN117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AO117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AP117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AQ117" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AR117" s="1"/>
       <c r="AS117" s="1"/>
@@ -12461,7 +12526,7 @@
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -12660,7 +12725,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
@@ -12776,7 +12841,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
@@ -12890,7 +12955,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
@@ -13002,7 +13067,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
@@ -13112,7 +13177,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
@@ -13222,7 +13287,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
@@ -13330,7 +13395,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
@@ -13436,7 +13501,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
@@ -13542,16 +13607,16 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -13565,7 +13630,7 @@
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
@@ -13578,52 +13643,52 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
       <c r="AB128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AC128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AD128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AE128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AF128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AG128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AH128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AI128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AJ128" s="1" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="AK128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AL128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AM128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AN128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AO128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AP128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AQ128" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AR128" s="1"/>
       <c r="AS128" s="1"/>
@@ -13782,16 +13847,16 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -13805,7 +13870,7 @@
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
@@ -13818,52 +13883,52 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
       <c r="AB130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AD130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AE130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AF130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AG130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AH130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AI130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AJ130" s="1" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="AK130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AL130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AM130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AN130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AO130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AP130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AQ130" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AR130" s="1"/>
       <c r="AS130" s="1"/>
@@ -13902,7 +13967,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -13985,7 +14050,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -14062,7 +14127,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -14143,7 +14208,7 @@
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -14222,69 +14287,69 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O135" s="1"/>
       <c r="P135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="W135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="X135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Y135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Z135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
@@ -14292,37 +14357,37 @@
       <c r="AD135" s="1"/>
       <c r="AE135" s="1"/>
       <c r="AF135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AG135" s="1"/>
       <c r="AH135" s="1"/>
       <c r="AI135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AJ135" s="1"/>
       <c r="AK135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AL135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AM135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AN135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AO135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AP135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AQ135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AR135" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AS135" s="1"/>
       <c r="AT135" s="1"/>
@@ -14445,7 +14510,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -14525,7 +14590,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -14603,7 +14668,7 @@
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -14682,22 +14747,22 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -14710,25 +14775,25 @@
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="W140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="X140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Y140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Z140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
@@ -14736,34 +14801,34 @@
       <c r="AD140" s="1"/>
       <c r="AE140" s="1"/>
       <c r="AF140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AG140" s="1"/>
       <c r="AH140" s="1"/>
       <c r="AI140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AJ140" s="1"/>
       <c r="AK140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AL140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AM140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AN140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AO140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AP140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AQ140" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AR140" s="1"/>
       <c r="AS140" s="1"/>
@@ -14817,7 +14882,7 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
@@ -14901,7 +14966,7 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
@@ -15004,16 +15069,16 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -15027,7 +15092,7 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
@@ -15040,40 +15105,52 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
       <c r="AB143" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC143" s="1"/>
-      <c r="AD143" s="1"/>
-      <c r="AE143" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="AC143" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD143" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE143" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="AF143" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG143" s="1"/>
-      <c r="AH143" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="AG143" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH143" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="AI143" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AJ143" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="AJ143" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="AK143" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AL143" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AM143" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AN143" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AO143" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AP143" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AQ143" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AR143" s="1"/>
       <c r="AS143" s="1"/>
@@ -15112,16 +15189,16 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -15135,7 +15212,7 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
@@ -15148,42 +15225,52 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
       <c r="AB144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AC144" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD144" s="1"/>
-      <c r="AE144" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="AD144" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE144" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="AF144" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG144" s="1"/>
-      <c r="AH144" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="AG144" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH144" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="AI144" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AJ144" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="AJ144" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="AK144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AL144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AM144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AN144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AO144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AP144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AQ144" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AR144" s="1"/>
       <c r="AS144" s="1"/>
@@ -15222,16 +15309,16 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -15245,7 +15332,7 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
@@ -15258,46 +15345,52 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
       <c r="AB145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AC145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AD145" s="1" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="AE145" s="1" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="AF145" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG145" s="1"/>
-      <c r="AH145" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="AG145" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH145" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="AI145" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ145" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="AJ145" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="AK145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AL145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AM145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AN145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AO145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AP145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AQ145" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AR145" s="1"/>
       <c r="AS145" s="1"/>
@@ -15336,16 +15429,16 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -15359,7 +15452,7 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
@@ -15372,46 +15465,52 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
       <c r="AB146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AD146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AE146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AF146" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AG146" s="1"/>
-      <c r="AH146" s="1"/>
+        <v>230</v>
+      </c>
+      <c r="AG146" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH146" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="AI146" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AJ146" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="AJ146" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="AK146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AL146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AM146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AN146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AO146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AP146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AQ146" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AR146" s="1"/>
       <c r="AS146" s="1"/>
@@ -15450,16 +15549,16 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -15473,7 +15572,7 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
@@ -15486,46 +15585,52 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
       <c r="AB147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AC147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AD147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AE147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AF147" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG147" s="1"/>
-      <c r="AH147" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="AG147" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH147" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="AI147" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ147" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="AJ147" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="AK147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AL147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AM147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AN147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AO147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AP147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AQ147" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AR147" s="1"/>
       <c r="AS147" s="1"/>
@@ -15564,16 +15669,16 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -15587,7 +15692,7 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
@@ -15600,50 +15705,52 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
       <c r="AB148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AD148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AE148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AF148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AG148" s="1" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="AH148" s="1" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="AI148" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AJ148" s="1"/>
+        <v>233</v>
+      </c>
+      <c r="AJ148" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="AK148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AL148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AM148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AN148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AO148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AP148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AQ148" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AR148" s="1"/>
       <c r="AS148" s="1"/>
@@ -15682,16 +15789,16 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -15705,7 +15812,7 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
@@ -15718,50 +15825,52 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
       <c r="AB149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AC149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AD149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AE149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AF149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AG149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AH149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AI149" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ149" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="AJ149" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="AK149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AL149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AM149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AN149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AO149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AP149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AQ149" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AR149" s="1"/>
       <c r="AS149" s="1"/>
@@ -15800,16 +15909,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -15823,7 +15932,7 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
@@ -15836,50 +15945,52 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
       <c r="AB150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AD150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AE150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AF150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AG150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AH150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AI150" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AJ150" s="1"/>
+        <v>235</v>
+      </c>
+      <c r="AJ150" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="AK150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AL150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AM150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AN150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AO150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AP150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AQ150" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AR150" s="1"/>
       <c r="AS150" s="1"/>
@@ -15918,16 +16029,16 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -15941,7 +16052,7 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
@@ -15953,55 +16064,55 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
       <c r="AA151" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AB151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AD151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AE151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AF151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AG151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AH151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AI151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AJ151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AK151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AL151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AM151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AN151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AO151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AP151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AQ151" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AR151" s="1"/>
       <c r="AS151" s="1"/>
@@ -16040,16 +16151,16 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -16063,7 +16174,7 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
@@ -16076,52 +16187,52 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
       <c r="AB152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AD152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AE152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AF152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AG152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AH152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AI152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AJ152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AK152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AL152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AM152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AN152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AO152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AP152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AQ152" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AR152" s="1"/>
       <c r="AS152" s="1"/>
@@ -16163,7 +16274,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -16380,35 +16491,35 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J155" s="1"/>
       <c r="K155" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="O155" s="1"/>
       <c r="P155" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
@@ -16871,7 +16982,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -16963,7 +17074,7 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
@@ -17028,7 +17139,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
@@ -17061,10 +17172,14 @@
       <c r="AC161" s="1"/>
       <c r="AD161" s="1"/>
       <c r="AE161" s="1"/>
-      <c r="AF161" s="1"/>
+      <c r="AF161" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="AG161" s="1"/>
       <c r="AH161" s="1"/>
-      <c r="AI161" s="1"/>
+      <c r="AI161" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="AJ161" s="1"/>
       <c r="AK161" s="1" t="s">
         <v>164</v>
@@ -17109,16 +17224,32 @@
       <c r="BK161" s="1"/>
       <c r="BL161" s="1"/>
       <c r="BM161" s="1"/>
-      <c r="BN161" s="1"/>
-      <c r="BO161" s="1"/>
-      <c r="BP161" s="1"/>
-      <c r="BQ161" s="1"/>
-      <c r="BR161" s="1"/>
-      <c r="BS161" s="1"/>
-      <c r="BT161" s="1"/>
-      <c r="BU161" s="1"/>
+      <c r="BN161" s="1">
+        <v>166</v>
+      </c>
+      <c r="BO161" s="1">
+        <v>86</v>
+      </c>
+      <c r="BP161" s="1">
+        <v>87</v>
+      </c>
+      <c r="BQ161" s="1">
+        <v>88</v>
+      </c>
+      <c r="BR161" s="1">
+        <v>89</v>
+      </c>
+      <c r="BS161" s="1">
+        <v>90</v>
+      </c>
+      <c r="BT161" s="1">
+        <v>91</v>
+      </c>
+      <c r="BU161" s="1">
+        <v>94</v>
+      </c>
       <c r="BV161" s="1">
-        <v>166</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162" spans="1:74" x14ac:dyDescent="0.25">
@@ -17126,16 +17257,16 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -17149,7 +17280,7 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
@@ -17162,52 +17293,52 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
       <c r="AB162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AC162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AD162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AE162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AF162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AG162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AH162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AI162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AJ162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AK162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AL162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AM162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AN162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AO162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AP162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AQ162" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AR162" s="1"/>
       <c r="AS162" s="1"/>
@@ -17246,69 +17377,69 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="O163" s="1"/>
       <c r="P163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="U163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="V163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="W163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="X163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Y163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Z163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
@@ -17316,37 +17447,37 @@
       <c r="AD163" s="1"/>
       <c r="AE163" s="1"/>
       <c r="AF163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AG163" s="1"/>
       <c r="AH163" s="1"/>
       <c r="AI163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AJ163" s="1"/>
       <c r="AK163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AL163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AM163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AN163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AO163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AP163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AQ163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AR163" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AS163" s="1"/>
       <c r="AT163" s="1"/>
@@ -17384,22 +17515,22 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -17412,25 +17543,25 @@
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
       <c r="T164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="U164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="V164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="W164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="X164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Y164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Z164" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
@@ -17438,34 +17569,34 @@
       <c r="AD164" s="1"/>
       <c r="AE164" s="1"/>
       <c r="AF164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AG164" s="1"/>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AJ164" s="1"/>
       <c r="AK164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AL164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AM164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AN164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AO164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AP164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AQ164" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AR164" s="1"/>
       <c r="AS164" s="1"/>
@@ -17506,22 +17637,22 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -17534,25 +17665,25 @@
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
       <c r="T165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="U165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="V165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="W165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="X165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Y165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Z165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
@@ -17560,34 +17691,34 @@
       <c r="AD165" s="1"/>
       <c r="AE165" s="1"/>
       <c r="AF165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AG165" s="1"/>
       <c r="AH165" s="1"/>
       <c r="AI165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AJ165" s="1"/>
       <c r="AK165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AL165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AM165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AN165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AO165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AP165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AQ165" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AR165" s="1"/>
       <c r="AS165" s="1"/>
@@ -17627,7 +17758,7 @@
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -17707,7 +17838,7 @@
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -17786,16 +17917,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -17809,7 +17940,7 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
@@ -17822,52 +17953,52 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
       <c r="AB168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AC168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AD168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AE168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AG168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AH168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AI168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AJ168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AK168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AL168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AM168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AN168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AO168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AP168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AQ168" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AR168" s="1"/>
       <c r="AS168" s="1"/>
@@ -17906,22 +18037,22 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -17934,25 +18065,25 @@
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
       <c r="T169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="U169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="V169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="W169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="X169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Y169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Z169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
@@ -17960,34 +18091,34 @@
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
       <c r="AF169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AG169" s="1"/>
       <c r="AH169" s="1"/>
       <c r="AI169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AJ169" s="1"/>
       <c r="AK169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AL169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AM169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AN169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AO169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AP169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AQ169" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AR169" s="1"/>
       <c r="AS169" s="1"/>
@@ -18282,22 +18413,22 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -18310,25 +18441,25 @@
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="U172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="V172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="W172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="X172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Y172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Z172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
@@ -18336,34 +18467,34 @@
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
       <c r="AF172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AG172" s="1"/>
       <c r="AH172" s="1"/>
       <c r="AI172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AJ172" s="1"/>
       <c r="AK172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AL172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AM172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AN172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AO172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AP172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AQ172" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="AR172" s="1"/>
       <c r="AS172" s="1"/>
@@ -18402,22 +18533,22 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -18430,25 +18561,25 @@
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
       <c r="T173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="U173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="V173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="W173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="X173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Y173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Z173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
@@ -18456,34 +18587,34 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
       <c r="AF173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AG173" s="1"/>
       <c r="AH173" s="1"/>
       <c r="AI173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AJ173" s="1"/>
       <c r="AK173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AL173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AM173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AN173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AO173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AP173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AQ173" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AR173" s="1"/>
       <c r="AS173" s="1"/>
@@ -18525,7 +18656,7 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -18740,22 +18871,22 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -18768,25 +18899,25 @@
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
       <c r="T176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="U176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="V176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="W176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="X176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Y176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Z176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
@@ -18794,34 +18925,34 @@
       <c r="AD176" s="1"/>
       <c r="AE176" s="1"/>
       <c r="AF176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AG176" s="1"/>
       <c r="AH176" s="1"/>
       <c r="AI176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AJ176" s="1"/>
       <c r="AK176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AL176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AM176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AN176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AO176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AP176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AQ176" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AR176" s="1"/>
       <c r="AS176" s="1"/>

--- a/mimij/mimij/AnalisiSintactico/Tabla.xlsx
+++ b/mimij/mimij/AnalisiSintactico/Tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derly\Documents\Universidad\Sexto ciclo\Compis\Proyecto\Proyecto-Compiladores\mimij\mimij\AnalisiSintactico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8C9243-59BC-4F6C-8EA0-18BBE7C66487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44A4C30-F99E-47B2-BA54-47B12C686391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{924D8882-C0E7-4292-B0BC-53CB839BE7C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="274">
   <si>
     <t>State</t>
   </si>
@@ -850,6 +850,12 @@
   </si>
   <si>
     <t>s190</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>AX</t>
   </si>
 </sst>
 </file>
@@ -1207,12 +1213,12 @@
   <dimension ref="A1:BX193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B1" sqref="B1:BX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,43 +1229,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
@@ -1268,175 +1274,181 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1540,7 +1552,7 @@
       <c r="BU2" s="1"/>
       <c r="BV2" s="1"/>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1620,7 +1632,7 @@
       <c r="BU3" s="1"/>
       <c r="BV3" s="1"/>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1726,7 +1738,7 @@
       <c r="BU4" s="1"/>
       <c r="BV4" s="1"/>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1808,7 +1820,7 @@
       <c r="BU5" s="1"/>
       <c r="BV5" s="1"/>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1888,7 +1900,7 @@
       <c r="BU6" s="1"/>
       <c r="BV6" s="1"/>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1976,7 +1988,7 @@
       <c r="BU7" s="1"/>
       <c r="BV7" s="1"/>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2056,7 +2068,7 @@
       <c r="BU8" s="1"/>
       <c r="BV8" s="1"/>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2136,7 +2148,7 @@
       <c r="BU9" s="1"/>
       <c r="BV9" s="1"/>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2218,7 +2230,7 @@
       <c r="BU10" s="1"/>
       <c r="BV10" s="1"/>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2300,7 +2312,7 @@
       <c r="BU11" s="1"/>
       <c r="BV11" s="1"/>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2382,7 +2394,7 @@
       <c r="BU12" s="1"/>
       <c r="BV12" s="1"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2464,7 +2476,7 @@
       <c r="BU13" s="1"/>
       <c r="BV13" s="1"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2546,7 +2558,7 @@
       <c r="BU14" s="1"/>
       <c r="BV14" s="1"/>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2628,7 +2640,7 @@
       <c r="BU15" s="1"/>
       <c r="BV15" s="1"/>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/mimij/mimij/AnalisiSintactico/Tabla.xlsx
+++ b/mimij/mimij/AnalisiSintactico/Tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derly\Documents\Universidad\Sexto ciclo\Compis\Proyecto\Proyecto-Compiladores\mimij\mimij\AnalisiSintactico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF826F9-BCB6-47C2-B868-B44B02BF8688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB52832-C65A-4464-A30B-72C24FA043F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{924D8882-C0E7-4292-B0BC-53CB839BE7C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="277">
   <si>
     <t>State</t>
   </si>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:BX198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2:BW198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,9 +1453,7 @@
       <c r="BW1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="BX1" s="1"/>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -19666,310 +19664,588 @@
       <c r="BT193" s="1"/>
       <c r="BU193" s="1"/>
       <c r="BV193" s="1"/>
+      <c r="BW193" s="1"/>
     </row>
     <row r="194" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E194" t="s">
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AG194" t="s">
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
+      <c r="Y194" s="1"/>
+      <c r="Z194" s="1"/>
+      <c r="AA194" s="1"/>
+      <c r="AB194" s="1"/>
+      <c r="AC194" s="1"/>
+      <c r="AD194" s="1"/>
+      <c r="AE194" s="1"/>
+      <c r="AF194" s="1"/>
+      <c r="AG194" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AJ194" t="s">
+      <c r="AH194" s="1"/>
+      <c r="AI194" s="1"/>
+      <c r="AJ194" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AL194" t="s">
+      <c r="AK194" s="1"/>
+      <c r="AL194" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AM194" t="s">
+      <c r="AM194" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AN194" t="s">
+      <c r="AN194" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AO194" t="s">
+      <c r="AO194" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AP194" t="s">
+      <c r="AP194" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AQ194" t="s">
+      <c r="AQ194" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AR194" t="s">
+      <c r="AR194" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BN194">
+      <c r="AS194" s="1"/>
+      <c r="AT194" s="1"/>
+      <c r="AU194" s="1"/>
+      <c r="AV194" s="1"/>
+      <c r="AW194" s="1"/>
+      <c r="AX194" s="1"/>
+      <c r="AY194" s="1"/>
+      <c r="AZ194" s="1"/>
+      <c r="BA194" s="1"/>
+      <c r="BB194" s="1"/>
+      <c r="BC194" s="1"/>
+      <c r="BD194" s="1"/>
+      <c r="BE194" s="1"/>
+      <c r="BF194" s="1"/>
+      <c r="BG194" s="1"/>
+      <c r="BH194" s="1"/>
+      <c r="BI194" s="1"/>
+      <c r="BJ194" s="1"/>
+      <c r="BK194" s="1"/>
+      <c r="BL194" s="1"/>
+      <c r="BM194" s="1"/>
+      <c r="BN194" s="1">
         <v>194</v>
       </c>
-      <c r="BO194">
+      <c r="BO194" s="1">
         <v>100</v>
       </c>
-      <c r="BQ194">
+      <c r="BP194" s="1"/>
+      <c r="BQ194" s="1">
         <v>101</v>
       </c>
-      <c r="BR194">
+      <c r="BR194" s="1">
         <v>102</v>
       </c>
-      <c r="BS194">
+      <c r="BS194" s="1">
         <v>103</v>
       </c>
-      <c r="BT194">
+      <c r="BT194" s="1">
         <v>104</v>
       </c>
-      <c r="BU194">
+      <c r="BU194" s="1">
         <v>105</v>
       </c>
-      <c r="BV194">
+      <c r="BV194" s="1">
         <v>108</v>
       </c>
-      <c r="BW194">
+      <c r="BW194" s="1">
         <v>109</v>
       </c>
     </row>
     <row r="195" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E195" t="s">
+      <c r="D195" s="1"/>
+      <c r="E195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I195" t="s">
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="S195" t="s">
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="U195" t="s">
+      <c r="T195" s="1"/>
+      <c r="U195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="V195" t="s">
+      <c r="V195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="W195" t="s">
+      <c r="W195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="X195" t="s">
+      <c r="X195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Y195" t="s">
+      <c r="Y195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Z195" t="s">
+      <c r="Z195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AA195" t="s">
+      <c r="AA195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AG195" t="s">
+      <c r="AB195" s="1"/>
+      <c r="AC195" s="1"/>
+      <c r="AD195" s="1"/>
+      <c r="AE195" s="1"/>
+      <c r="AF195" s="1"/>
+      <c r="AG195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AJ195" t="s">
+      <c r="AH195" s="1"/>
+      <c r="AI195" s="1"/>
+      <c r="AJ195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AL195" t="s">
+      <c r="AK195" s="1"/>
+      <c r="AL195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AM195" t="s">
+      <c r="AM195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AN195" t="s">
+      <c r="AN195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AO195" t="s">
+      <c r="AO195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AP195" t="s">
+      <c r="AP195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AQ195" t="s">
+      <c r="AQ195" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AR195" t="s">
+      <c r="AR195" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="AS195" s="1"/>
+      <c r="AT195" s="1"/>
+      <c r="AU195" s="1"/>
+      <c r="AV195" s="1"/>
+      <c r="AW195" s="1"/>
+      <c r="AX195" s="1"/>
+      <c r="AY195" s="1"/>
+      <c r="AZ195" s="1"/>
+      <c r="BA195" s="1"/>
+      <c r="BB195" s="1"/>
+      <c r="BC195" s="1"/>
+      <c r="BD195" s="1"/>
+      <c r="BE195" s="1"/>
+      <c r="BF195" s="1"/>
+      <c r="BG195" s="1"/>
+      <c r="BH195" s="1"/>
+      <c r="BI195" s="1"/>
+      <c r="BJ195" s="1"/>
+      <c r="BK195" s="1"/>
+      <c r="BL195" s="1"/>
+      <c r="BM195" s="1"/>
+      <c r="BN195" s="1"/>
+      <c r="BO195" s="1"/>
+      <c r="BP195" s="1"/>
+      <c r="BQ195" s="1"/>
+      <c r="BR195" s="1"/>
+      <c r="BS195" s="1"/>
+      <c r="BT195" s="1"/>
+      <c r="BU195" s="1"/>
+      <c r="BV195" s="1"/>
+      <c r="BW195" s="1"/>
     </row>
     <row r="196" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="F196" t="s">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
+      <c r="Y196" s="1"/>
+      <c r="Z196" s="1"/>
+      <c r="AA196" s="1"/>
+      <c r="AB196" s="1"/>
+      <c r="AC196" s="1"/>
+      <c r="AD196" s="1"/>
+      <c r="AE196" s="1"/>
+      <c r="AF196" s="1"/>
+      <c r="AG196" s="1"/>
+      <c r="AH196" s="1"/>
+      <c r="AI196" s="1"/>
+      <c r="AJ196" s="1"/>
+      <c r="AK196" s="1"/>
+      <c r="AL196" s="1"/>
+      <c r="AM196" s="1"/>
+      <c r="AN196" s="1"/>
+      <c r="AO196" s="1"/>
+      <c r="AP196" s="1"/>
+      <c r="AQ196" s="1"/>
+      <c r="AR196" s="1"/>
+      <c r="AS196" s="1"/>
+      <c r="AT196" s="1"/>
+      <c r="AU196" s="1"/>
+      <c r="AV196" s="1"/>
+      <c r="AW196" s="1"/>
+      <c r="AX196" s="1"/>
+      <c r="AY196" s="1"/>
+      <c r="AZ196" s="1"/>
+      <c r="BA196" s="1"/>
+      <c r="BB196" s="1"/>
+      <c r="BC196" s="1"/>
+      <c r="BD196" s="1"/>
+      <c r="BE196" s="1"/>
+      <c r="BF196" s="1"/>
+      <c r="BG196" s="1"/>
+      <c r="BH196" s="1"/>
+      <c r="BI196" s="1"/>
+      <c r="BJ196" s="1"/>
+      <c r="BK196" s="1"/>
+      <c r="BL196" s="1"/>
+      <c r="BM196" s="1"/>
+      <c r="BN196" s="1"/>
+      <c r="BO196" s="1"/>
+      <c r="BP196" s="1"/>
+      <c r="BQ196" s="1"/>
+      <c r="BR196" s="1"/>
+      <c r="BS196" s="1"/>
+      <c r="BT196" s="1"/>
+      <c r="BU196" s="1"/>
+      <c r="BV196" s="1"/>
+      <c r="BW196" s="1"/>
     </row>
     <row r="197" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E197" t="s">
+      <c r="D197" s="1"/>
+      <c r="E197" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I197" t="s">
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="U197" t="s">
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="V197" t="s">
+      <c r="V197" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="W197" t="s">
+      <c r="W197" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="X197" t="s">
+      <c r="X197" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="Y197" t="s">
+      <c r="Y197" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Z197" t="s">
+      <c r="Z197" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AG197" t="s">
+      <c r="AA197" s="1"/>
+      <c r="AB197" s="1"/>
+      <c r="AC197" s="1"/>
+      <c r="AD197" s="1"/>
+      <c r="AE197" s="1"/>
+      <c r="AF197" s="1"/>
+      <c r="AG197" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AJ197" t="s">
+      <c r="AH197" s="1"/>
+      <c r="AI197" s="1"/>
+      <c r="AJ197" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AL197" t="s">
+      <c r="AK197" s="1"/>
+      <c r="AL197" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AM197" t="s">
+      <c r="AM197" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AN197" t="s">
+      <c r="AN197" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AO197" t="s">
+      <c r="AO197" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AP197" t="s">
+      <c r="AP197" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AQ197" t="s">
+      <c r="AQ197" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AR197" t="s">
+      <c r="AR197" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="BG197">
+      <c r="AS197" s="1"/>
+      <c r="AT197" s="1"/>
+      <c r="AU197" s="1"/>
+      <c r="AV197" s="1"/>
+      <c r="AW197" s="1"/>
+      <c r="AX197" s="1"/>
+      <c r="AY197" s="1"/>
+      <c r="AZ197" s="1"/>
+      <c r="BA197" s="1"/>
+      <c r="BB197" s="1"/>
+      <c r="BC197" s="1"/>
+      <c r="BD197" s="1"/>
+      <c r="BE197" s="1"/>
+      <c r="BF197" s="1"/>
+      <c r="BG197" s="1">
         <v>98</v>
       </c>
-      <c r="BK197">
+      <c r="BH197" s="1"/>
+      <c r="BI197" s="1"/>
+      <c r="BJ197" s="1"/>
+      <c r="BK197" s="1">
         <v>196</v>
       </c>
-      <c r="BN197">
+      <c r="BL197" s="1"/>
+      <c r="BM197" s="1"/>
+      <c r="BN197" s="1">
         <v>90</v>
       </c>
-      <c r="BO197">
+      <c r="BO197" s="1">
         <v>100</v>
       </c>
-      <c r="BQ197">
+      <c r="BP197" s="1"/>
+      <c r="BQ197" s="1">
         <v>101</v>
       </c>
-      <c r="BR197">
+      <c r="BR197" s="1">
         <v>102</v>
       </c>
-      <c r="BS197">
+      <c r="BS197" s="1">
         <v>103</v>
       </c>
-      <c r="BT197">
+      <c r="BT197" s="1">
         <v>104</v>
       </c>
-      <c r="BU197">
+      <c r="BU197" s="1">
         <v>105</v>
       </c>
-      <c r="BV197">
+      <c r="BV197" s="1">
         <v>108</v>
       </c>
-      <c r="BW197">
+      <c r="BW197" s="1">
         <v>109</v>
       </c>
     </row>
     <row r="198" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E198" t="s">
+      <c r="D198" s="1"/>
+      <c r="E198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I198" t="s">
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="S198" t="s">
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U198" t="s">
+      <c r="T198" s="1"/>
+      <c r="U198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="V198" t="s">
+      <c r="V198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="W198" t="s">
+      <c r="W198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="X198" t="s">
+      <c r="X198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Y198" t="s">
+      <c r="Y198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Z198" t="s">
+      <c r="Z198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AA198" t="s">
+      <c r="AA198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AG198" t="s">
+      <c r="AB198" s="1"/>
+      <c r="AC198" s="1"/>
+      <c r="AD198" s="1"/>
+      <c r="AE198" s="1"/>
+      <c r="AF198" s="1"/>
+      <c r="AG198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AJ198" t="s">
+      <c r="AH198" s="1"/>
+      <c r="AI198" s="1"/>
+      <c r="AJ198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AL198" t="s">
+      <c r="AK198" s="1"/>
+      <c r="AL198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AM198" t="s">
+      <c r="AM198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AN198" t="s">
+      <c r="AN198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AO198" t="s">
+      <c r="AO198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AP198" t="s">
+      <c r="AP198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AQ198" t="s">
+      <c r="AQ198" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AR198" t="s">
+      <c r="AR198" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="AS198" s="1"/>
+      <c r="AT198" s="1"/>
+      <c r="AU198" s="1"/>
+      <c r="AV198" s="1"/>
+      <c r="AW198" s="1"/>
+      <c r="AX198" s="1"/>
+      <c r="AY198" s="1"/>
+      <c r="AZ198" s="1"/>
+      <c r="BA198" s="1"/>
+      <c r="BB198" s="1"/>
+      <c r="BC198" s="1"/>
+      <c r="BD198" s="1"/>
+      <c r="BE198" s="1"/>
+      <c r="BF198" s="1"/>
+      <c r="BG198" s="1"/>
+      <c r="BH198" s="1"/>
+      <c r="BI198" s="1"/>
+      <c r="BJ198" s="1"/>
+      <c r="BK198" s="1"/>
+      <c r="BL198" s="1"/>
+      <c r="BM198" s="1"/>
+      <c r="BN198" s="1"/>
+      <c r="BO198" s="1"/>
+      <c r="BP198" s="1"/>
+      <c r="BQ198" s="1"/>
+      <c r="BR198" s="1"/>
+      <c r="BS198" s="1"/>
+      <c r="BT198" s="1"/>
+      <c r="BU198" s="1"/>
+      <c r="BV198" s="1"/>
+      <c r="BW198" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mimij/mimij/AnalisiSintactico/Tabla.xlsx
+++ b/mimij/mimij/AnalisiSintactico/Tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derly\Documents\Universidad\Sexto ciclo\Compis\Proyecto\Traduccion\Traduccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A16194-A09E-42A1-8ABD-12BF23F8AC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B49872-2791-4A83-9763-4146B0E71440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{924D8882-C0E7-4292-B0BC-53CB839BE7C0}"/>
   </bookViews>
@@ -1264,8 +1264,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BY210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="BY1" sqref="A1:BY1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:BY210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mimij/mimij/AnalisiSintactico/Tabla.xlsx
+++ b/mimij/mimij/AnalisiSintactico/Tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derly\Documents\Universidad\Sexto ciclo\Compis\Proyecto\Traduccion\Traduccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B49872-2791-4A83-9763-4146B0E71440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A17193B-D132-4549-8AA1-B04A2865B4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{924D8882-C0E7-4292-B0BC-53CB839BE7C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="291">
   <si>
     <t>State</t>
   </si>
@@ -432,9 +432,6 @@
     <t>r23</t>
   </si>
   <si>
-    <t>s111</t>
-  </si>
-  <si>
     <t>r41</t>
   </si>
   <si>
@@ -630,18 +627,12 @@
     <t>s89</t>
   </si>
   <si>
-    <t>s124</t>
-  </si>
-  <si>
     <t>s125</t>
   </si>
   <si>
     <t>s128</t>
   </si>
   <si>
-    <t>s136</t>
-  </si>
-  <si>
     <t>r82</t>
   </si>
   <si>
@@ -669,9 +660,6 @@
     <t>s114</t>
   </si>
   <si>
-    <t>s117</t>
-  </si>
-  <si>
     <t>s130</t>
   </si>
   <si>
@@ -720,15 +708,9 @@
     <t>s97</t>
   </si>
   <si>
-    <t>s115</t>
-  </si>
-  <si>
     <t>s129</t>
   </si>
   <si>
-    <t>s140</t>
-  </si>
-  <si>
     <t>s142</t>
   </si>
   <si>
@@ -768,9 +750,6 @@
     <t>s146</t>
   </si>
   <si>
-    <t>s151</t>
-  </si>
-  <si>
     <t>r84</t>
   </si>
   <si>
@@ -786,9 +765,6 @@
     <t>r88</t>
   </si>
   <si>
-    <t>s156</t>
-  </si>
-  <si>
     <t>s167</t>
   </si>
   <si>
@@ -855,9 +831,6 @@
     <t>s110</t>
   </si>
   <si>
-    <t>s116 / r82</t>
-  </si>
-  <si>
     <t>s119</t>
   </si>
   <si>
@@ -867,27 +840,15 @@
     <t>s122</t>
   </si>
   <si>
-    <t>s127</t>
-  </si>
-  <si>
     <t>s133</t>
   </si>
   <si>
-    <t>s138</t>
-  </si>
-  <si>
     <t>s148</t>
   </si>
   <si>
-    <t>s166</t>
-  </si>
-  <si>
     <t>s168</t>
   </si>
   <si>
-    <t>s171</t>
-  </si>
-  <si>
     <t>s172</t>
   </si>
   <si>
@@ -907,6 +868,45 @@
   </si>
   <si>
     <t>s207</t>
+  </si>
+  <si>
+    <t>s116</t>
+  </si>
+  <si>
+    <t>s117 / r82</t>
+  </si>
+  <si>
+    <t>s123</t>
+  </si>
+  <si>
+    <t>s126</t>
+  </si>
+  <si>
+    <t>s135</t>
+  </si>
+  <si>
+    <t>s137</t>
+  </si>
+  <si>
+    <t>s139</t>
+  </si>
+  <si>
+    <t>s149</t>
+  </si>
+  <si>
+    <t>s152</t>
+  </si>
+  <si>
+    <t>s157</t>
+  </si>
+  <si>
+    <t>s169</t>
+  </si>
+  <si>
+    <t>s174</t>
+  </si>
+  <si>
+    <t>s192</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1326,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>18</v>
@@ -1347,7 +1347,7 @@
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>34</v>
@@ -1449,7 +1449,7 @@
         <v>56</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>57</v>
@@ -1464,7 +1464,7 @@
         <v>60</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="BN1" s="1" t="s">
         <v>61</v>
@@ -1479,7 +1479,7 @@
         <v>64</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>65</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1804,7 +1804,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1820,7 +1820,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -2060,7 +2060,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3235,7 +3235,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3701,10 +3701,10 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -3770,7 +3770,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4136,7 +4136,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -4208,7 +4208,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -4393,7 +4393,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4726,7 +4726,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4984,7 +4984,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5066,7 +5066,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5082,7 +5082,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -5157,7 +5157,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -5251,7 +5251,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -5325,7 +5325,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -5406,12 +5406,12 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -5433,7 +5433,7 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
@@ -5605,7 +5605,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -5857,7 +5857,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -6118,22 +6118,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -6157,10 +6157,10 @@
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="W55" s="1" t="s">
         <v>127</v>
@@ -6172,7 +6172,7 @@
         <v>129</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
@@ -6182,33 +6182,33 @@
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL55" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM55" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN55" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO55" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP55" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ55" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR55" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1"/>
@@ -6487,7 +6487,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -6565,12 +6565,12 @@
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -6592,7 +6592,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -6747,7 +6747,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6763,7 +6763,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -6831,7 +6831,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7287,7 +7287,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -7360,33 +7360,63 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="I68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
+      <c r="L68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
+      <c r="S68" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
+      <c r="U68" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z68" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
@@ -7394,23 +7424,45 @@
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
-      <c r="AH68" s="1"/>
+      <c r="AH68" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
-      <c r="AK68" s="1"/>
-      <c r="AL68" s="1"/>
-      <c r="AM68" s="1"/>
-      <c r="AN68" s="1"/>
-      <c r="AO68" s="1"/>
-      <c r="AP68" s="1"/>
-      <c r="AQ68" s="1"/>
-      <c r="AR68" s="1"/>
+      <c r="AK68" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO68" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP68" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ68" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR68" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="AS68" s="1"/>
       <c r="AT68" s="1"/>
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
-      <c r="AW68" s="1"/>
-      <c r="AX68" s="1"/>
+      <c r="AW68" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX68" s="1">
+        <v>70</v>
+      </c>
       <c r="AY68" s="1"/>
       <c r="AZ68" s="1"/>
       <c r="BA68" s="1"/>
@@ -7419,56 +7471,117 @@
       <c r="BD68" s="1"/>
       <c r="BE68" s="1"/>
       <c r="BF68" s="1"/>
-      <c r="BG68" s="1"/>
-      <c r="BH68" s="1"/>
-      <c r="BI68" s="1"/>
-      <c r="BJ68" s="1"/>
-      <c r="BK68" s="1"/>
-      <c r="BL68" s="1"/>
+      <c r="BG68" s="1">
+        <v>82</v>
+      </c>
+      <c r="BH68" s="1">
+        <v>111</v>
+      </c>
+      <c r="BI68" s="1">
+        <v>66</v>
+      </c>
+      <c r="BJ68" s="1">
+        <v>67</v>
+      </c>
+      <c r="BK68" s="1">
+        <v>68</v>
+      </c>
+      <c r="BL68" s="1">
+        <v>72</v>
+      </c>
       <c r="BM68" s="1"/>
       <c r="BN68" s="1"/>
       <c r="BO68" s="1"/>
-      <c r="BP68" s="1"/>
-      <c r="BQ68" s="1"/>
+      <c r="BP68" s="1">
+        <v>74</v>
+      </c>
+      <c r="BQ68" s="1">
+        <v>83</v>
+      </c>
       <c r="BR68" s="1"/>
-      <c r="BS68" s="1"/>
-      <c r="BT68" s="1"/>
-      <c r="BU68" s="1"/>
-      <c r="BV68" s="1"/>
-      <c r="BW68" s="1"/>
-      <c r="BX68" s="1"/>
+      <c r="BS68" s="1">
+        <v>84</v>
+      </c>
+      <c r="BT68" s="1">
+        <v>85</v>
+      </c>
+      <c r="BU68" s="1">
+        <v>86</v>
+      </c>
+      <c r="BV68" s="1">
+        <v>87</v>
+      </c>
+      <c r="BW68" s="1">
+        <v>88</v>
+      </c>
+      <c r="BX68" s="1">
+        <v>91</v>
+      </c>
+      <c r="BY68">
+        <v>92</v>
+      </c>
     </row>
     <row r="69" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="I69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
+      <c r="L69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
+      <c r="S69" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
+      <c r="U69" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
@@ -7476,23 +7589,45 @@
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
+      <c r="AH69" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
-      <c r="AM69" s="1"/>
-      <c r="AN69" s="1"/>
-      <c r="AO69" s="1"/>
-      <c r="AP69" s="1"/>
-      <c r="AQ69" s="1"/>
-      <c r="AR69" s="1"/>
+      <c r="AK69" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP69" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ69" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR69" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="AS69" s="1"/>
       <c r="AT69" s="1"/>
       <c r="AU69" s="1"/>
       <c r="AV69" s="1"/>
-      <c r="AW69" s="1"/>
-      <c r="AX69" s="1"/>
+      <c r="AW69" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX69" s="1">
+        <v>70</v>
+      </c>
       <c r="AY69" s="1"/>
       <c r="AZ69" s="1"/>
       <c r="BA69" s="1"/>
@@ -7501,56 +7636,117 @@
       <c r="BD69" s="1"/>
       <c r="BE69" s="1"/>
       <c r="BF69" s="1"/>
-      <c r="BG69" s="1"/>
-      <c r="BH69" s="1"/>
-      <c r="BI69" s="1"/>
-      <c r="BJ69" s="1"/>
-      <c r="BK69" s="1"/>
-      <c r="BL69" s="1"/>
+      <c r="BG69" s="1">
+        <v>82</v>
+      </c>
+      <c r="BH69" s="1">
+        <v>112</v>
+      </c>
+      <c r="BI69" s="1">
+        <v>66</v>
+      </c>
+      <c r="BJ69" s="1">
+        <v>67</v>
+      </c>
+      <c r="BK69" s="1">
+        <v>68</v>
+      </c>
+      <c r="BL69" s="1">
+        <v>72</v>
+      </c>
       <c r="BM69" s="1"/>
       <c r="BN69" s="1"/>
       <c r="BO69" s="1"/>
-      <c r="BP69" s="1"/>
-      <c r="BQ69" s="1"/>
+      <c r="BP69" s="1">
+        <v>74</v>
+      </c>
+      <c r="BQ69" s="1">
+        <v>83</v>
+      </c>
       <c r="BR69" s="1"/>
-      <c r="BS69" s="1"/>
-      <c r="BT69" s="1"/>
-      <c r="BU69" s="1"/>
-      <c r="BV69" s="1"/>
-      <c r="BW69" s="1"/>
-      <c r="BX69" s="1"/>
+      <c r="BS69" s="1">
+        <v>84</v>
+      </c>
+      <c r="BT69" s="1">
+        <v>85</v>
+      </c>
+      <c r="BU69" s="1">
+        <v>86</v>
+      </c>
+      <c r="BV69" s="1">
+        <v>87</v>
+      </c>
+      <c r="BW69" s="1">
+        <v>88</v>
+      </c>
+      <c r="BX69" s="1">
+        <v>91</v>
+      </c>
+      <c r="BY69">
+        <v>92</v>
+      </c>
     </row>
     <row r="70" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="I70" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
+      <c r="L70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
+      <c r="S70" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
+      <c r="U70" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
@@ -7558,23 +7754,45 @@
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
-      <c r="AH70" s="1"/>
+      <c r="AH70" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
-      <c r="AK70" s="1"/>
-      <c r="AL70" s="1"/>
-      <c r="AM70" s="1"/>
-      <c r="AN70" s="1"/>
-      <c r="AO70" s="1"/>
-      <c r="AP70" s="1"/>
-      <c r="AQ70" s="1"/>
-      <c r="AR70" s="1"/>
+      <c r="AK70" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM70" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO70" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP70" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ70" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR70" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="AS70" s="1"/>
       <c r="AT70" s="1"/>
       <c r="AU70" s="1"/>
       <c r="AV70" s="1"/>
-      <c r="AW70" s="1"/>
-      <c r="AX70" s="1"/>
+      <c r="AW70" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX70" s="1">
+        <v>70</v>
+      </c>
       <c r="AY70" s="1"/>
       <c r="AZ70" s="1"/>
       <c r="BA70" s="1"/>
@@ -7583,24 +7801,55 @@
       <c r="BD70" s="1"/>
       <c r="BE70" s="1"/>
       <c r="BF70" s="1"/>
-      <c r="BG70" s="1"/>
-      <c r="BH70" s="1"/>
-      <c r="BI70" s="1"/>
-      <c r="BJ70" s="1"/>
-      <c r="BK70" s="1"/>
-      <c r="BL70" s="1"/>
+      <c r="BG70" s="1">
+        <v>82</v>
+      </c>
+      <c r="BH70" s="1">
+        <v>113</v>
+      </c>
+      <c r="BI70" s="1">
+        <v>66</v>
+      </c>
+      <c r="BJ70" s="1">
+        <v>67</v>
+      </c>
+      <c r="BK70" s="1">
+        <v>68</v>
+      </c>
+      <c r="BL70" s="1">
+        <v>72</v>
+      </c>
       <c r="BM70" s="1"/>
       <c r="BN70" s="1"/>
       <c r="BO70" s="1"/>
-      <c r="BP70" s="1"/>
-      <c r="BQ70" s="1"/>
+      <c r="BP70" s="1">
+        <v>74</v>
+      </c>
+      <c r="BQ70" s="1">
+        <v>83</v>
+      </c>
       <c r="BR70" s="1"/>
-      <c r="BS70" s="1"/>
-      <c r="BT70" s="1"/>
-      <c r="BU70" s="1"/>
-      <c r="BV70" s="1"/>
-      <c r="BW70" s="1"/>
-      <c r="BX70" s="1"/>
+      <c r="BS70" s="1">
+        <v>84</v>
+      </c>
+      <c r="BT70" s="1">
+        <v>85</v>
+      </c>
+      <c r="BU70" s="1">
+        <v>86</v>
+      </c>
+      <c r="BV70" s="1">
+        <v>87</v>
+      </c>
+      <c r="BW70" s="1">
+        <v>88</v>
+      </c>
+      <c r="BX70" s="1">
+        <v>91</v>
+      </c>
+      <c r="BY70">
+        <v>92</v>
+      </c>
     </row>
     <row r="71" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -7615,7 +7864,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -7689,7 +7938,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -7705,7 +7954,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -7828,7 +8077,7 @@
       <c r="AU73" s="1"/>
       <c r="AV73" s="1"/>
       <c r="AW73" s="1">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
@@ -7863,49 +8112,61 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+      <c r="L74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
+      <c r="S74" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="T74" s="1"/>
       <c r="U74" s="1" t="s">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Y74" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
@@ -7915,33 +8176,33 @@
       <c r="AF74" s="1"/>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1" t="s">
-        <v>266</v>
+        <v>132</v>
       </c>
       <c r="AL74" s="1" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="AM74" s="1" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="AN74" s="1" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="AO74" s="1" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="AP74" s="1" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="AQ74" s="1" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="AR74" s="1" t="s">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="AS74" s="1"/>
       <c r="AT74" s="1"/>
@@ -7957,49 +8218,24 @@
       <c r="BD74" s="1"/>
       <c r="BE74" s="1"/>
       <c r="BF74" s="1"/>
-      <c r="BG74" s="1">
-        <v>82</v>
-      </c>
+      <c r="BG74" s="1"/>
       <c r="BH74" s="1"/>
       <c r="BI74" s="1"/>
       <c r="BJ74" s="1"/>
-      <c r="BK74" s="1">
-        <v>113</v>
-      </c>
-      <c r="BL74" s="1">
-        <v>72</v>
-      </c>
+      <c r="BK74" s="1"/>
+      <c r="BL74" s="1"/>
       <c r="BM74" s="1"/>
       <c r="BN74" s="1"/>
       <c r="BO74" s="1"/>
-      <c r="BP74" s="1">
-        <v>74</v>
-      </c>
-      <c r="BQ74" s="1">
-        <v>83</v>
-      </c>
+      <c r="BP74" s="1"/>
+      <c r="BQ74" s="1"/>
       <c r="BR74" s="1"/>
-      <c r="BS74" s="1">
-        <v>84</v>
-      </c>
-      <c r="BT74" s="1">
-        <v>85</v>
-      </c>
-      <c r="BU74" s="1">
-        <v>86</v>
-      </c>
-      <c r="BV74" s="1">
-        <v>87</v>
-      </c>
-      <c r="BW74" s="1">
-        <v>88</v>
-      </c>
-      <c r="BX74" s="1">
-        <v>91</v>
-      </c>
-      <c r="BY74">
-        <v>92</v>
-      </c>
+      <c r="BS74" s="1"/>
+      <c r="BT74" s="1"/>
+      <c r="BU74" s="1"/>
+      <c r="BV74" s="1"/>
+      <c r="BW74" s="1"/>
+      <c r="BX74" s="1"/>
     </row>
     <row r="75" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -8011,7 +8247,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -8029,7 +8265,7 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
@@ -8039,32 +8275,32 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="AD75" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AE75" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AF75" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG75" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AH75" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AI75" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AJ75" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AK75" s="1"/>
       <c r="AL75" s="1"/>
@@ -8113,7 +8349,7 @@
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -8194,55 +8430,65 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
+      <c r="L77" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T77" s="1"/>
       <c r="U77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
@@ -8250,33 +8496,33 @@
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AN77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AO77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AP77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AQ77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AR77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS77" s="1"/>
       <c r="AT77" s="1"/>
@@ -8319,7 +8565,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -8401,7 +8647,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -8483,7 +8729,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -8563,7 +8809,7 @@
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -8644,12 +8890,12 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -8680,33 +8926,33 @@
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
       <c r="AK82" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL82" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM82" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN82" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO82" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP82" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ82" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR82" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS82" s="1"/>
       <c r="AT82" s="1"/>
@@ -8732,7 +8978,7 @@
       <c r="BN82" s="1"/>
       <c r="BO82" s="1"/>
       <c r="BP82" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BQ82" s="1">
         <v>83</v>
@@ -8768,7 +9014,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -8847,55 +9093,65 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
+      <c r="L84" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T84" s="1"/>
       <c r="U84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC84" s="1"/>
       <c r="AD84" s="1"/>
@@ -8903,33 +9159,33 @@
       <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
       <c r="AH84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
       <c r="AK84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AN84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AO84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AP84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AQ84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AR84" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS84" s="1"/>
       <c r="AT84" s="1"/>
@@ -8970,12 +9226,12 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -8988,11 +9244,11 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -9002,30 +9258,30 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
       <c r="AA85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
       <c r="AD85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AH85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AJ85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK85" s="1"/>
       <c r="AL85" s="1"/>
@@ -9090,7 +9346,7 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
@@ -9103,10 +9359,10 @@
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
       <c r="AD86" s="1" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="AF86" s="1"/>
       <c r="AG86" s="1"/>
@@ -9147,7 +9403,7 @@
       <c r="BP86" s="1"/>
       <c r="BQ86" s="1"/>
       <c r="BR86" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BS86" s="1"/>
       <c r="BT86" s="1"/>
@@ -9178,7 +9434,7 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
@@ -9191,16 +9447,16 @@
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
       <c r="AD87" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1"/>
@@ -9268,7 +9524,7 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
@@ -9281,19 +9537,19 @@
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
       <c r="AD88" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AH88" s="1" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
@@ -9360,7 +9616,7 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
@@ -9373,25 +9629,25 @@
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
       <c r="AD89" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AE89" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AH89" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI89" s="1" t="s">
-        <v>278</v>
+        <v>150</v>
       </c>
       <c r="AJ89" s="1" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="AK89" s="1"/>
       <c r="AL89" s="1"/>
@@ -9456,7 +9712,7 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
@@ -9469,25 +9725,25 @@
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
       <c r="AD90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AH90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AK90" s="1"/>
       <c r="AL90" s="1"/>
@@ -9535,12 +9791,12 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -9575,25 +9831,25 @@
       <c r="AJ91" s="1"/>
       <c r="AK91" s="1"/>
       <c r="AL91" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM91" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN91" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO91" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP91" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ91" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR91" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS91" s="1"/>
       <c r="AT91" s="1"/>
@@ -9627,7 +9883,7 @@
       <c r="BV91" s="1"/>
       <c r="BW91" s="1"/>
       <c r="BX91" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BY91">
         <v>92</v>
@@ -9638,12 +9894,12 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -9678,25 +9934,25 @@
       <c r="AJ92" s="1"/>
       <c r="AK92" s="1"/>
       <c r="AL92" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM92" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN92" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO92" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP92" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ92" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR92" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS92" s="1"/>
       <c r="AT92" s="1"/>
@@ -9730,7 +9986,7 @@
       <c r="BV92" s="1"/>
       <c r="BW92" s="1"/>
       <c r="BX92" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BY92">
         <v>92</v>
@@ -9758,7 +10014,7 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
@@ -9768,30 +10024,30 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
       <c r="AA93" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
       <c r="AD93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AI93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AJ93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AK93" s="1"/>
       <c r="AL93" s="1"/>
@@ -9856,7 +10112,7 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
@@ -9866,30 +10122,30 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
       <c r="AD94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AH94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AJ94" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK94" s="1"/>
       <c r="AL94" s="1"/>
@@ -9937,12 +10193,12 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -9973,33 +10229,33 @@
       <c r="AF95" s="1"/>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI95" s="1"/>
       <c r="AJ95" s="1"/>
       <c r="AK95" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL95" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM95" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN95" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO95" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP95" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ95" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR95" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS95" s="1"/>
       <c r="AT95" s="1"/>
@@ -10025,7 +10281,7 @@
       <c r="BN95" s="1"/>
       <c r="BO95" s="1"/>
       <c r="BP95" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BQ95" s="1">
         <v>83</v>
@@ -10075,7 +10331,7 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
@@ -10085,30 +10341,30 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
       <c r="AD96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK96" s="1"/>
       <c r="AL96" s="1"/>
@@ -10159,7 +10415,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -10255,7 +10511,7 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
@@ -10265,30 +10521,30 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
       <c r="AA98" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
       <c r="AD98" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AE98" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AG98" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AH98" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AI98" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AJ98" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AK98" s="1"/>
       <c r="AL98" s="1"/>
@@ -10353,7 +10609,7 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
@@ -10363,30 +10619,30 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
       <c r="AA99" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
       <c r="AD99" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AE99" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AF99" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AG99" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AH99" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AI99" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AJ99" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AK99" s="1"/>
       <c r="AL99" s="1"/>
@@ -10451,7 +10707,7 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
@@ -10461,30 +10717,30 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
       <c r="AA100" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
       <c r="AD100" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AE100" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AF100" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AH100" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AI100" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AJ100" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AK100" s="1"/>
       <c r="AL100" s="1"/>
@@ -10549,7 +10805,7 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
@@ -10559,30 +10815,30 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
       <c r="AD101" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AH101" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AI101" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AJ101" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AK101" s="1"/>
       <c r="AL101" s="1"/>
@@ -10647,7 +10903,7 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
@@ -10657,30 +10913,30 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
       <c r="AA102" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
       <c r="AD102" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AE102" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AF102" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AG102" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AH102" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AI102" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AJ102" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AK102" s="1"/>
       <c r="AL102" s="1"/>
@@ -10993,11 +11249,11 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -11079,7 +11335,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -11158,7 +11414,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -11326,7 +11582,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -11408,7 +11664,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -11486,71 +11742,71 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T112" s="1"/>
       <c r="U112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA112" s="1"/>
       <c r="AB112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC112" s="1"/>
       <c r="AD112" s="1"/>
@@ -11558,36 +11814,36 @@
       <c r="AF112" s="1"/>
       <c r="AG112" s="1"/>
       <c r="AH112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AI112" s="1"/>
       <c r="AJ112" s="1"/>
       <c r="AK112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AM112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AN112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AP112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AQ112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AR112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AS112" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AT112" s="1"/>
       <c r="AU112" s="1"/>
@@ -11626,16 +11882,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="J113" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
@@ -11707,9 +11963,7 @@
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -11717,7 +11971,9 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="J114" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
@@ -11798,7 +12054,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -11872,11 +12128,11 @@
         <v>114</v>
       </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
+      <c r="C116" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="D116" s="1"/>
-      <c r="E116" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -11890,9 +12146,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
-      <c r="S116" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="S116" s="1"/>
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
@@ -11900,34 +12154,16 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
-      <c r="AA116" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
-      <c r="AC116" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD116" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE116" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF116" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG116" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH116" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI116" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ116" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1"/>
+      <c r="AG116" s="1"/>
+      <c r="AH116" s="1"/>
+      <c r="AI116" s="1"/>
+      <c r="AJ116" s="1"/>
       <c r="AK116" s="1"/>
       <c r="AL116" s="1"/>
       <c r="AM116" s="1"/>
@@ -11974,13 +12210,11 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -12009,35 +12243,17 @@
       <c r="AE117" s="1"/>
       <c r="AF117" s="1"/>
       <c r="AG117" s="1"/>
-      <c r="AH117" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="AH117" s="1"/>
       <c r="AI117" s="1"/>
       <c r="AJ117" s="1"/>
-      <c r="AK117" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AL117" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM117" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN117" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO117" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP117" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ117" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AR117" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="AK117" s="1"/>
+      <c r="AL117" s="1"/>
+      <c r="AM117" s="1"/>
+      <c r="AN117" s="1"/>
+      <c r="AO117" s="1"/>
+      <c r="AP117" s="1"/>
+      <c r="AQ117" s="1"/>
+      <c r="AR117" s="1"/>
       <c r="AS117" s="1"/>
       <c r="AT117" s="1"/>
       <c r="AU117" s="1"/>
@@ -12058,50 +12274,31 @@
       <c r="BJ117" s="1"/>
       <c r="BK117" s="1"/>
       <c r="BL117" s="1"/>
-      <c r="BM117" s="1">
-        <v>149</v>
-      </c>
+      <c r="BM117" s="1"/>
       <c r="BN117" s="1"/>
       <c r="BO117" s="1"/>
-      <c r="BP117" s="1">
-        <v>150</v>
-      </c>
-      <c r="BQ117" s="1">
-        <v>83</v>
-      </c>
+      <c r="BP117" s="1"/>
+      <c r="BQ117" s="1"/>
       <c r="BR117" s="1"/>
-      <c r="BS117" s="1">
-        <v>84</v>
-      </c>
-      <c r="BT117" s="1">
-        <v>85</v>
-      </c>
-      <c r="BU117" s="1">
-        <v>86</v>
-      </c>
-      <c r="BV117" s="1">
-        <v>87</v>
-      </c>
-      <c r="BW117" s="1">
-        <v>88</v>
-      </c>
-      <c r="BX117" s="1">
-        <v>91</v>
-      </c>
-      <c r="BY117">
-        <v>92</v>
-      </c>
+      <c r="BS117" s="1"/>
+      <c r="BT117" s="1"/>
+      <c r="BU117" s="1"/>
+      <c r="BV117" s="1"/>
+      <c r="BW117" s="1"/>
+      <c r="BX117" s="1"/>
     </row>
     <row r="118" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -12130,17 +12327,35 @@
       <c r="AE118" s="1"/>
       <c r="AF118" s="1"/>
       <c r="AG118" s="1"/>
-      <c r="AH118" s="1"/>
+      <c r="AH118" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="AI118" s="1"/>
       <c r="AJ118" s="1"/>
-      <c r="AK118" s="1"/>
-      <c r="AL118" s="1"/>
-      <c r="AM118" s="1"/>
-      <c r="AN118" s="1"/>
-      <c r="AO118" s="1"/>
-      <c r="AP118" s="1"/>
-      <c r="AQ118" s="1"/>
-      <c r="AR118" s="1"/>
+      <c r="AK118" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL118" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM118" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN118" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO118" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP118" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ118" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR118" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="AS118" s="1"/>
       <c r="AT118" s="1"/>
       <c r="AU118" s="1"/>
@@ -12161,31 +12376,50 @@
       <c r="BJ118" s="1"/>
       <c r="BK118" s="1"/>
       <c r="BL118" s="1"/>
-      <c r="BM118" s="1"/>
+      <c r="BM118" s="1">
+        <v>150</v>
+      </c>
       <c r="BN118" s="1"/>
       <c r="BO118" s="1"/>
-      <c r="BP118" s="1"/>
-      <c r="BQ118" s="1"/>
+      <c r="BP118" s="1">
+        <v>151</v>
+      </c>
+      <c r="BQ118" s="1">
+        <v>83</v>
+      </c>
       <c r="BR118" s="1"/>
-      <c r="BS118" s="1"/>
-      <c r="BT118" s="1"/>
-      <c r="BU118" s="1"/>
-      <c r="BV118" s="1"/>
-      <c r="BW118" s="1"/>
-      <c r="BX118" s="1"/>
+      <c r="BS118" s="1">
+        <v>84</v>
+      </c>
+      <c r="BT118" s="1">
+        <v>85</v>
+      </c>
+      <c r="BU118" s="1">
+        <v>86</v>
+      </c>
+      <c r="BV118" s="1">
+        <v>87</v>
+      </c>
+      <c r="BW118" s="1">
+        <v>88</v>
+      </c>
+      <c r="BX118" s="1">
+        <v>91</v>
+      </c>
+      <c r="BY118">
+        <v>92</v>
+      </c>
     </row>
     <row r="119" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -12214,35 +12448,17 @@
       <c r="AE119" s="1"/>
       <c r="AF119" s="1"/>
       <c r="AG119" s="1"/>
-      <c r="AH119" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="AH119" s="1"/>
       <c r="AI119" s="1"/>
       <c r="AJ119" s="1"/>
-      <c r="AK119" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AL119" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM119" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN119" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO119" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP119" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ119" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AR119" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="AK119" s="1"/>
+      <c r="AL119" s="1"/>
+      <c r="AM119" s="1"/>
+      <c r="AN119" s="1"/>
+      <c r="AO119" s="1"/>
+      <c r="AP119" s="1"/>
+      <c r="AQ119" s="1"/>
+      <c r="AR119" s="1"/>
       <c r="AS119" s="1"/>
       <c r="AT119" s="1"/>
       <c r="AU119" s="1"/>
@@ -12267,52 +12483,31 @@
       <c r="BN119" s="1"/>
       <c r="BO119" s="1"/>
       <c r="BP119" s="1"/>
-      <c r="BQ119" s="1">
-        <v>152</v>
-      </c>
+      <c r="BQ119" s="1"/>
       <c r="BR119" s="1"/>
-      <c r="BS119" s="1">
-        <v>84</v>
-      </c>
-      <c r="BT119" s="1">
-        <v>85</v>
-      </c>
-      <c r="BU119" s="1">
-        <v>86</v>
-      </c>
-      <c r="BV119" s="1">
-        <v>87</v>
-      </c>
-      <c r="BW119" s="1">
-        <v>88</v>
-      </c>
-      <c r="BX119" s="1">
-        <v>91</v>
-      </c>
-      <c r="BY119">
-        <v>92</v>
-      </c>
+      <c r="BS119" s="1"/>
+      <c r="BT119" s="1"/>
+      <c r="BU119" s="1"/>
+      <c r="BV119" s="1"/>
+      <c r="BW119" s="1"/>
+      <c r="BX119" s="1"/>
     </row>
     <row r="120" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>180</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -12322,65 +12517,49 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
-      <c r="S120" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="S120" s="1"/>
       <c r="T120" s="1"/>
-      <c r="U120" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="V120" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="W120" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="X120" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y120" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z120" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
-      <c r="AB120" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="AB120" s="1"/>
       <c r="AC120" s="1"/>
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
       <c r="AF120" s="1"/>
       <c r="AG120" s="1"/>
       <c r="AH120" s="1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="AI120" s="1"/>
       <c r="AJ120" s="1"/>
       <c r="AK120" s="1" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="AL120" s="1" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="AM120" s="1" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="AN120" s="1" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="AO120" s="1" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="AP120" s="1" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="AQ120" s="1" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="AR120" s="1" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="AS120" s="1"/>
       <c r="AT120" s="1"/>
@@ -12406,83 +12585,130 @@
       <c r="BN120" s="1"/>
       <c r="BO120" s="1"/>
       <c r="BP120" s="1"/>
-      <c r="BQ120" s="1"/>
+      <c r="BQ120" s="1">
+        <v>153</v>
+      </c>
       <c r="BR120" s="1"/>
-      <c r="BS120" s="1"/>
-      <c r="BT120" s="1"/>
-      <c r="BU120" s="1"/>
-      <c r="BV120" s="1"/>
-      <c r="BW120" s="1"/>
-      <c r="BX120" s="1"/>
+      <c r="BS120" s="1">
+        <v>84</v>
+      </c>
+      <c r="BT120" s="1">
+        <v>85</v>
+      </c>
+      <c r="BU120" s="1">
+        <v>86</v>
+      </c>
+      <c r="BV120" s="1">
+        <v>87</v>
+      </c>
+      <c r="BW120" s="1">
+        <v>88</v>
+      </c>
+      <c r="BX120" s="1">
+        <v>91</v>
+      </c>
+      <c r="BY120">
+        <v>92</v>
+      </c>
     </row>
     <row r="121" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C121" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="G121" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
+      <c r="I121" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
+      <c r="L121" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
-      <c r="S121" s="1"/>
+      <c r="S121" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="T121" s="1"/>
-      <c r="U121" s="1"/>
-      <c r="V121" s="1"/>
-      <c r="W121" s="1"/>
-      <c r="X121" s="1"/>
-      <c r="Y121" s="1"/>
-      <c r="Z121" s="1"/>
+      <c r="U121" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="W121" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="X121" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y121" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z121" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="AA121" s="1"/>
-      <c r="AB121" s="1"/>
+      <c r="AB121" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="AC121" s="1"/>
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
       <c r="AF121" s="1"/>
       <c r="AG121" s="1"/>
       <c r="AH121" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="AI121" s="1"/>
       <c r="AJ121" s="1"/>
       <c r="AK121" s="1" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="AL121" s="1" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="AM121" s="1" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="AN121" s="1" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="AO121" s="1" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="AP121" s="1" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="AQ121" s="1" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="AR121" s="1" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="AS121" s="1"/>
       <c r="AT121" s="1"/>
@@ -12507,46 +12733,27 @@
       <c r="BM121" s="1"/>
       <c r="BN121" s="1"/>
       <c r="BO121" s="1"/>
-      <c r="BP121" s="1">
-        <v>153</v>
-      </c>
-      <c r="BQ121" s="1">
-        <v>83</v>
-      </c>
+      <c r="BP121" s="1"/>
+      <c r="BQ121" s="1"/>
       <c r="BR121" s="1"/>
-      <c r="BS121" s="1">
-        <v>84</v>
-      </c>
-      <c r="BT121" s="1">
-        <v>85</v>
-      </c>
-      <c r="BU121" s="1">
-        <v>86</v>
-      </c>
-      <c r="BV121" s="1">
-        <v>87</v>
-      </c>
-      <c r="BW121" s="1">
-        <v>88</v>
-      </c>
-      <c r="BX121" s="1">
-        <v>91</v>
-      </c>
-      <c r="BY121">
-        <v>92</v>
-      </c>
+      <c r="BS121" s="1"/>
+      <c r="BT121" s="1"/>
+      <c r="BU121" s="1"/>
+      <c r="BV121" s="1"/>
+      <c r="BW121" s="1"/>
+      <c r="BX121" s="1"/>
     </row>
     <row r="122" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -12577,33 +12784,33 @@
       <c r="AF122" s="1"/>
       <c r="AG122" s="1"/>
       <c r="AH122" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
       <c r="AK122" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL122" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM122" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN122" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO122" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP122" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ122" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR122" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS122" s="1"/>
       <c r="AT122" s="1"/>
@@ -12662,12 +12869,12 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -12698,33 +12905,33 @@
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
       <c r="AH123" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
       <c r="AK123" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL123" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM123" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN123" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO123" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP123" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ123" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR123" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS123" s="1"/>
       <c r="AT123" s="1"/>
@@ -12783,21 +12990,17 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>181</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -12807,65 +13010,49 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
-      <c r="S124" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="S124" s="1"/>
       <c r="T124" s="1"/>
-      <c r="U124" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="V124" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="W124" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="X124" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y124" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z124" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
+      <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
-      <c r="AB124" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="AB124" s="1"/>
       <c r="AC124" s="1"/>
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
       <c r="AF124" s="1"/>
       <c r="AG124" s="1"/>
       <c r="AH124" s="1" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
       <c r="AK124" s="1" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="AL124" s="1" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="AM124" s="1" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="AN124" s="1" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="AO124" s="1" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="AP124" s="1" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="AQ124" s="1" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="AR124" s="1" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="AS124" s="1"/>
       <c r="AT124" s="1"/>
@@ -12890,65 +13077,134 @@
       <c r="BM124" s="1"/>
       <c r="BN124" s="1"/>
       <c r="BO124" s="1"/>
-      <c r="BP124" s="1"/>
-      <c r="BQ124" s="1"/>
+      <c r="BP124" s="1">
+        <v>156</v>
+      </c>
+      <c r="BQ124" s="1">
+        <v>83</v>
+      </c>
       <c r="BR124" s="1"/>
-      <c r="BS124" s="1"/>
-      <c r="BT124" s="1"/>
-      <c r="BU124" s="1"/>
-      <c r="BV124" s="1"/>
-      <c r="BW124" s="1"/>
-      <c r="BX124" s="1"/>
+      <c r="BS124" s="1">
+        <v>84</v>
+      </c>
+      <c r="BT124" s="1">
+        <v>85</v>
+      </c>
+      <c r="BU124" s="1">
+        <v>86</v>
+      </c>
+      <c r="BV124" s="1">
+        <v>87</v>
+      </c>
+      <c r="BW124" s="1">
+        <v>88</v>
+      </c>
+      <c r="BX124" s="1">
+        <v>91</v>
+      </c>
+      <c r="BY124">
+        <v>92</v>
+      </c>
     </row>
     <row r="125" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="1"/>
+      <c r="B125" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="C125" s="1" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="E125" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
+      <c r="G125" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
+      <c r="I125" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
+      <c r="L125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
+      <c r="S125" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="T125" s="1"/>
-      <c r="U125" s="1"/>
-      <c r="V125" s="1"/>
-      <c r="W125" s="1"/>
-      <c r="X125" s="1"/>
-      <c r="Y125" s="1"/>
-      <c r="Z125" s="1"/>
+      <c r="U125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="V125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="X125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z125" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="AA125" s="1"/>
-      <c r="AB125" s="1"/>
+      <c r="AB125" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="AC125" s="1"/>
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
       <c r="AF125" s="1"/>
       <c r="AG125" s="1"/>
-      <c r="AH125" s="1"/>
+      <c r="AH125" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
-      <c r="AK125" s="1"/>
-      <c r="AL125" s="1"/>
-      <c r="AM125" s="1"/>
-      <c r="AN125" s="1"/>
-      <c r="AO125" s="1"/>
-      <c r="AP125" s="1"/>
-      <c r="AQ125" s="1"/>
-      <c r="AR125" s="1"/>
+      <c r="AK125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AP125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR125" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="AS125" s="1"/>
       <c r="AT125" s="1"/>
       <c r="AU125" s="1"/>
@@ -12987,7 +13243,9 @@
         <v>124</v>
       </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="C126" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -13003,9 +13261,7 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
-      <c r="S126" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="S126" s="1"/>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
@@ -13013,34 +13269,16 @@
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
-      <c r="AA126" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
-      <c r="AC126" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD126" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE126" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF126" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG126" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH126" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI126" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ126" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="AC126" s="1"/>
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
+      <c r="AF126" s="1"/>
+      <c r="AG126" s="1"/>
+      <c r="AH126" s="1"/>
+      <c r="AI126" s="1"/>
+      <c r="AJ126" s="1"/>
       <c r="AK126" s="1"/>
       <c r="AL126" s="1"/>
       <c r="AM126" s="1"/>
@@ -13086,14 +13324,10 @@
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -13107,7 +13341,9 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
-      <c r="S127" s="1"/>
+      <c r="S127" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
       <c r="V127" s="1"/>
@@ -13115,42 +13351,42 @@
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
-      <c r="AA127" s="1"/>
+      <c r="AA127" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="AB127" s="1"/>
-      <c r="AC127" s="1"/>
-      <c r="AD127" s="1"/>
-      <c r="AE127" s="1"/>
-      <c r="AF127" s="1"/>
-      <c r="AG127" s="1"/>
+      <c r="AC127" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD127" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE127" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF127" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG127" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="AH127" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI127" s="1"/>
-      <c r="AJ127" s="1"/>
-      <c r="AK127" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AL127" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM127" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN127" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO127" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP127" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ127" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AR127" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="AI127" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ127" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK127" s="1"/>
+      <c r="AL127" s="1"/>
+      <c r="AM127" s="1"/>
+      <c r="AN127" s="1"/>
+      <c r="AO127" s="1"/>
+      <c r="AP127" s="1"/>
+      <c r="AQ127" s="1"/>
+      <c r="AR127" s="1"/>
       <c r="AS127" s="1"/>
       <c r="AT127" s="1"/>
       <c r="AU127" s="1"/>
@@ -13173,51 +13409,30 @@
       <c r="BL127" s="1"/>
       <c r="BM127" s="1"/>
       <c r="BN127" s="1"/>
-      <c r="BO127" s="1">
-        <v>157</v>
-      </c>
-      <c r="BP127" s="1">
-        <v>158</v>
-      </c>
-      <c r="BQ127" s="1">
-        <v>83</v>
-      </c>
+      <c r="BO127" s="1"/>
+      <c r="BP127" s="1"/>
+      <c r="BQ127" s="1"/>
       <c r="BR127" s="1"/>
-      <c r="BS127" s="1">
-        <v>84</v>
-      </c>
-      <c r="BT127" s="1">
-        <v>85</v>
-      </c>
-      <c r="BU127" s="1">
-        <v>86</v>
-      </c>
-      <c r="BV127" s="1">
-        <v>87</v>
-      </c>
-      <c r="BW127" s="1">
-        <v>88</v>
-      </c>
-      <c r="BX127" s="1">
-        <v>91</v>
-      </c>
-      <c r="BY127">
-        <v>92</v>
-      </c>
+      <c r="BS127" s="1"/>
+      <c r="BT127" s="1"/>
+      <c r="BU127" s="1"/>
+      <c r="BV127" s="1"/>
+      <c r="BW127" s="1"/>
+      <c r="BX127" s="1"/>
     </row>
     <row r="128" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="B128" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="E128" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -13228,13 +13443,9 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
-      <c r="Q128" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
-      <c r="S128" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="S128" s="1"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
@@ -13242,40 +13453,42 @@
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
-      <c r="AA128" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
       <c r="AC128" s="1"/>
-      <c r="AD128" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE128" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF128" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG128" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+      <c r="AF128" s="1"/>
+      <c r="AG128" s="1"/>
       <c r="AH128" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI128" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ128" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK128" s="1"/>
-      <c r="AL128" s="1"/>
-      <c r="AM128" s="1"/>
-      <c r="AN128" s="1"/>
-      <c r="AO128" s="1"/>
-      <c r="AP128" s="1"/>
-      <c r="AQ128" s="1"/>
-      <c r="AR128" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="AI128" s="1"/>
+      <c r="AJ128" s="1"/>
+      <c r="AK128" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL128" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM128" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN128" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO128" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP128" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ128" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR128" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="AS128" s="1"/>
       <c r="AT128" s="1"/>
       <c r="AU128" s="1"/>
@@ -13298,30 +13511,51 @@
       <c r="BL128" s="1"/>
       <c r="BM128" s="1"/>
       <c r="BN128" s="1"/>
-      <c r="BO128" s="1"/>
-      <c r="BP128" s="1"/>
-      <c r="BQ128" s="1"/>
+      <c r="BO128" s="1">
+        <v>158</v>
+      </c>
+      <c r="BP128" s="1">
+        <v>159</v>
+      </c>
+      <c r="BQ128" s="1">
+        <v>83</v>
+      </c>
       <c r="BR128" s="1"/>
-      <c r="BS128" s="1"/>
-      <c r="BT128" s="1"/>
-      <c r="BU128" s="1"/>
-      <c r="BV128" s="1"/>
-      <c r="BW128" s="1"/>
-      <c r="BX128" s="1"/>
+      <c r="BS128" s="1">
+        <v>84</v>
+      </c>
+      <c r="BT128" s="1">
+        <v>85</v>
+      </c>
+      <c r="BU128" s="1">
+        <v>86</v>
+      </c>
+      <c r="BV128" s="1">
+        <v>87</v>
+      </c>
+      <c r="BW128" s="1">
+        <v>88</v>
+      </c>
+      <c r="BX128" s="1">
+        <v>91</v>
+      </c>
+      <c r="BY128">
+        <v>92</v>
+      </c>
     </row>
     <row r="129" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="D129" s="1"/>
-      <c r="E129" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -13332,9 +13566,13 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
+      <c r="Q129" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="R129" s="1"/>
-      <c r="S129" s="1"/>
+      <c r="S129" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
       <c r="V129" s="1"/>
@@ -13342,42 +13580,40 @@
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
-      <c r="AA129" s="1"/>
+      <c r="AA129" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="AB129" s="1"/>
       <c r="AC129" s="1"/>
-      <c r="AD129" s="1"/>
-      <c r="AE129" s="1"/>
-      <c r="AF129" s="1"/>
-      <c r="AG129" s="1"/>
+      <c r="AD129" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE129" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF129" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG129" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="AH129" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI129" s="1"/>
-      <c r="AJ129" s="1"/>
-      <c r="AK129" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AL129" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM129" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN129" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO129" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP129" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ129" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AR129" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AI129" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ129" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK129" s="1"/>
+      <c r="AL129" s="1"/>
+      <c r="AM129" s="1"/>
+      <c r="AN129" s="1"/>
+      <c r="AO129" s="1"/>
+      <c r="AP129" s="1"/>
+      <c r="AQ129" s="1"/>
+      <c r="AR129" s="1"/>
       <c r="AS129" s="1"/>
       <c r="AT129" s="1"/>
       <c r="AU129" s="1"/>
@@ -13405,36 +13641,23 @@
       <c r="BQ129" s="1"/>
       <c r="BR129" s="1"/>
       <c r="BS129" s="1"/>
-      <c r="BT129" s="1">
-        <v>159</v>
-      </c>
-      <c r="BU129" s="1">
-        <v>86</v>
-      </c>
-      <c r="BV129" s="1">
-        <v>87</v>
-      </c>
-      <c r="BW129" s="1">
-        <v>88</v>
-      </c>
-      <c r="BX129" s="1">
-        <v>91</v>
-      </c>
-      <c r="BY129">
-        <v>92</v>
-      </c>
+      <c r="BT129" s="1"/>
+      <c r="BU129" s="1"/>
+      <c r="BV129" s="1"/>
+      <c r="BW129" s="1"/>
+      <c r="BX129" s="1"/>
     </row>
     <row r="130" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -13465,33 +13688,33 @@
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
       <c r="AH130" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
       <c r="AK130" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL130" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM130" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN130" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO130" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP130" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ130" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR130" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS130" s="1"/>
       <c r="AT130" s="1"/>
@@ -13519,11 +13742,9 @@
       <c r="BP130" s="1"/>
       <c r="BQ130" s="1"/>
       <c r="BR130" s="1"/>
-      <c r="BS130" s="1">
+      <c r="BS130" s="1"/>
+      <c r="BT130" s="1">
         <v>160</v>
-      </c>
-      <c r="BT130" s="1">
-        <v>85</v>
       </c>
       <c r="BU130" s="1">
         <v>86</v>
@@ -13545,15 +13766,15 @@
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="B131" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="E131" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -13564,13 +13785,9 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
-      <c r="Q131" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
-      <c r="S131" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="S131" s="1"/>
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
       <c r="V131" s="1"/>
@@ -13578,40 +13795,42 @@
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
-      <c r="AA131" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
       <c r="AC131" s="1"/>
-      <c r="AD131" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE131" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF131" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG131" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="1"/>
+      <c r="AF131" s="1"/>
+      <c r="AG131" s="1"/>
       <c r="AH131" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI131" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ131" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK131" s="1"/>
-      <c r="AL131" s="1"/>
-      <c r="AM131" s="1"/>
-      <c r="AN131" s="1"/>
-      <c r="AO131" s="1"/>
-      <c r="AP131" s="1"/>
-      <c r="AQ131" s="1"/>
-      <c r="AR131" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="AI131" s="1"/>
+      <c r="AJ131" s="1"/>
+      <c r="AK131" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL131" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM131" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN131" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO131" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP131" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ131" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR131" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="AS131" s="1"/>
       <c r="AT131" s="1"/>
       <c r="AU131" s="1"/>
@@ -13638,26 +13857,41 @@
       <c r="BP131" s="1"/>
       <c r="BQ131" s="1"/>
       <c r="BR131" s="1"/>
-      <c r="BS131" s="1"/>
-      <c r="BT131" s="1"/>
-      <c r="BU131" s="1"/>
-      <c r="BV131" s="1"/>
-      <c r="BW131" s="1"/>
-      <c r="BX131" s="1"/>
+      <c r="BS131" s="1">
+        <v>161</v>
+      </c>
+      <c r="BT131" s="1">
+        <v>85</v>
+      </c>
+      <c r="BU131" s="1">
+        <v>86</v>
+      </c>
+      <c r="BV131" s="1">
+        <v>87</v>
+      </c>
+      <c r="BW131" s="1">
+        <v>88</v>
+      </c>
+      <c r="BX131" s="1">
+        <v>91</v>
+      </c>
+      <c r="BY131">
+        <v>92</v>
+      </c>
     </row>
     <row r="132" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="D132" s="1"/>
-      <c r="E132" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -13668,9 +13902,13 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
+      <c r="Q132" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
+      <c r="S132" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
@@ -13678,42 +13916,40 @@
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
-      <c r="AA132" s="1"/>
+      <c r="AA132" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
-      <c r="AD132" s="1"/>
-      <c r="AE132" s="1"/>
-      <c r="AF132" s="1"/>
-      <c r="AG132" s="1"/>
+      <c r="AD132" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE132" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF132" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG132" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="AH132" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI132" s="1"/>
-      <c r="AJ132" s="1"/>
-      <c r="AK132" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AL132" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM132" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN132" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO132" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP132" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AQ132" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AR132" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AI132" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ132" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK132" s="1"/>
+      <c r="AL132" s="1"/>
+      <c r="AM132" s="1"/>
+      <c r="AN132" s="1"/>
+      <c r="AO132" s="1"/>
+      <c r="AP132" s="1"/>
+      <c r="AQ132" s="1"/>
+      <c r="AR132" s="1"/>
       <c r="AS132" s="1"/>
       <c r="AT132" s="1"/>
       <c r="AU132" s="1"/>
@@ -13742,33 +13978,22 @@
       <c r="BR132" s="1"/>
       <c r="BS132" s="1"/>
       <c r="BT132" s="1"/>
-      <c r="BU132" s="1">
-        <v>161</v>
-      </c>
-      <c r="BV132" s="1">
-        <v>87</v>
-      </c>
-      <c r="BW132" s="1">
-        <v>88</v>
-      </c>
-      <c r="BX132" s="1">
-        <v>91</v>
-      </c>
-      <c r="BY132">
-        <v>92</v>
-      </c>
+      <c r="BU132" s="1"/>
+      <c r="BV132" s="1"/>
+      <c r="BW132" s="1"/>
+      <c r="BX132" s="1"/>
     </row>
     <row r="133" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -13799,33 +14024,33 @@
       <c r="AF133" s="1"/>
       <c r="AG133" s="1"/>
       <c r="AH133" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
       <c r="AK133" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL133" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM133" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN133" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO133" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP133" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ133" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR133" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS133" s="1"/>
       <c r="AT133" s="1"/>
@@ -13876,12 +14101,12 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -13912,33 +14137,33 @@
       <c r="AF134" s="1"/>
       <c r="AG134" s="1"/>
       <c r="AH134" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI134" s="1"/>
       <c r="AJ134" s="1"/>
       <c r="AK134" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL134" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM134" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN134" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO134" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP134" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ134" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR134" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS134" s="1"/>
       <c r="AT134" s="1"/>
@@ -13968,9 +14193,11 @@
       <c r="BR134" s="1"/>
       <c r="BS134" s="1"/>
       <c r="BT134" s="1"/>
-      <c r="BU134" s="1"/>
+      <c r="BU134" s="1">
+        <v>163</v>
+      </c>
       <c r="BV134" s="1">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="BW134" s="1">
         <v>88</v>
@@ -13987,12 +14214,12 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -14023,33 +14250,33 @@
       <c r="AF135" s="1"/>
       <c r="AG135" s="1"/>
       <c r="AH135" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI135" s="1"/>
       <c r="AJ135" s="1"/>
       <c r="AK135" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL135" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM135" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN135" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO135" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP135" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ135" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR135" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS135" s="1"/>
       <c r="AT135" s="1"/>
@@ -14080,9 +14307,11 @@
       <c r="BS135" s="1"/>
       <c r="BT135" s="1"/>
       <c r="BU135" s="1"/>
-      <c r="BV135" s="1"/>
+      <c r="BV135" s="1">
+        <v>164</v>
+      </c>
       <c r="BW135" s="1">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="BX135" s="1">
         <v>91</v>
@@ -14096,12 +14325,12 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -14132,33 +14361,33 @@
       <c r="AF136" s="1"/>
       <c r="AG136" s="1"/>
       <c r="AH136" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI136" s="1"/>
       <c r="AJ136" s="1"/>
       <c r="AK136" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL136" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM136" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN136" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO136" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP136" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ136" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR136" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS136" s="1"/>
       <c r="AT136" s="1"/>
@@ -14204,10 +14433,14 @@
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" s="1"/>
+      <c r="B137" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -14221,9 +14454,7 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
-      <c r="S137" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="S137" s="1"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
@@ -14231,40 +14462,42 @@
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
-      <c r="AA137" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
       <c r="AC137" s="1"/>
-      <c r="AD137" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE137" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF137" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG137" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
+      <c r="AG137" s="1"/>
       <c r="AH137" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI137" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ137" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK137" s="1"/>
-      <c r="AL137" s="1"/>
-      <c r="AM137" s="1"/>
-      <c r="AN137" s="1"/>
-      <c r="AO137" s="1"/>
-      <c r="AP137" s="1"/>
-      <c r="AQ137" s="1"/>
-      <c r="AR137" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="AI137" s="1"/>
+      <c r="AJ137" s="1"/>
+      <c r="AK137" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL137" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM137" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN137" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO137" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP137" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ137" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR137" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="AS137" s="1"/>
       <c r="AT137" s="1"/>
       <c r="AU137" s="1"/>
@@ -14295,8 +14528,15 @@
       <c r="BT137" s="1"/>
       <c r="BU137" s="1"/>
       <c r="BV137" s="1"/>
-      <c r="BW137" s="1"/>
-      <c r="BX137" s="1"/>
+      <c r="BW137" s="1">
+        <v>166</v>
+      </c>
+      <c r="BX137" s="1">
+        <v>91</v>
+      </c>
+      <c r="BY137">
+        <v>92</v>
+      </c>
     </row>
     <row r="138" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -14320,7 +14560,7 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
@@ -14330,30 +14570,30 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
       <c r="AA138" s="1" t="s">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
       <c r="AD138" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="AE138" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="AF138" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="AG138" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="AH138" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="AI138" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="AJ138" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="AK138" s="1"/>
       <c r="AL138" s="1"/>
@@ -14418,7 +14658,7 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
@@ -14428,30 +14668,30 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
       <c r="AA139" s="1" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="AB139" s="1"/>
       <c r="AC139" s="1"/>
       <c r="AD139" s="1" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="AE139" s="1" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="AG139" s="1" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="AH139" s="1" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="AI139" s="1" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="AJ139" s="1" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="AK139" s="1"/>
       <c r="AL139" s="1"/>
@@ -14498,9 +14738,7 @@
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -14517,7 +14755,9 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
-      <c r="S140" s="1"/>
+      <c r="S140" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
       <c r="V140" s="1"/>
@@ -14525,16 +14765,32 @@
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
-      <c r="AA140" s="1"/>
+      <c r="AA140" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="AB140" s="1"/>
       <c r="AC140" s="1"/>
-      <c r="AD140" s="1"/>
-      <c r="AE140" s="1"/>
-      <c r="AF140" s="1"/>
-      <c r="AG140" s="1"/>
-      <c r="AH140" s="1"/>
-      <c r="AI140" s="1"/>
-      <c r="AJ140" s="1"/>
+      <c r="AD140" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE140" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF140" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG140" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH140" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI140" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ140" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="AK140" s="1"/>
       <c r="AL140" s="1"/>
       <c r="AM140" s="1"/>
@@ -14580,13 +14836,13 @@
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" s="1"/>
+      <c r="B141" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -14662,13 +14918,13 @@
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -14745,39 +15001,25 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="C143" s="1"/>
-      <c r="D143" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
-      <c r="L143" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N143" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O143" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
-      <c r="S143" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="S143" s="1"/>
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
       <c r="V143" s="1"/>
@@ -14841,33 +15083,39 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="D144" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
+      <c r="G144" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
+      <c r="S144" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
       <c r="V144" s="1"/>
@@ -14897,15 +15145,9 @@
       <c r="AT144" s="1"/>
       <c r="AU144" s="1"/>
       <c r="AV144" s="1"/>
-      <c r="AW144" s="1">
-        <v>8</v>
-      </c>
-      <c r="AX144" s="1">
-        <v>30</v>
-      </c>
-      <c r="AY144" s="1">
-        <v>169</v>
-      </c>
+      <c r="AW144" s="1"/>
+      <c r="AX144" s="1"/>
+      <c r="AY144" s="1"/>
       <c r="AZ144" s="1"/>
       <c r="BA144" s="1"/>
       <c r="BB144" s="1"/>
@@ -15032,10 +15274,10 @@
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="B146" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -15044,10 +15286,18 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
+      <c r="L146" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
@@ -15081,9 +15331,15 @@
       <c r="AT146" s="1"/>
       <c r="AU146" s="1"/>
       <c r="AV146" s="1"/>
-      <c r="AW146" s="1"/>
-      <c r="AX146" s="1"/>
-      <c r="AY146" s="1"/>
+      <c r="AW146" s="1">
+        <v>8</v>
+      </c>
+      <c r="AX146" s="1">
+        <v>30</v>
+      </c>
+      <c r="AY146" s="1">
+        <v>171</v>
+      </c>
       <c r="AZ146" s="1"/>
       <c r="BA146" s="1"/>
       <c r="BB146" s="1"/>
@@ -15116,7 +15372,7 @@
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -15198,7 +15454,7 @@
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -15278,10 +15534,10 @@
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -15290,18 +15546,10 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
-      <c r="L149" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M149" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N149" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O149" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
@@ -15335,12 +15583,8 @@
       <c r="AT149" s="1"/>
       <c r="AU149" s="1"/>
       <c r="AV149" s="1"/>
-      <c r="AW149" s="1">
-        <v>8</v>
-      </c>
-      <c r="AX149" s="1">
-        <v>70</v>
-      </c>
+      <c r="AW149" s="1"/>
+      <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
       <c r="BA149" s="1"/>
@@ -15351,9 +15595,7 @@
       <c r="BF149" s="1"/>
       <c r="BG149" s="1"/>
       <c r="BH149" s="1"/>
-      <c r="BI149" s="1">
-        <v>174</v>
-      </c>
+      <c r="BI149" s="1"/>
       <c r="BJ149" s="1"/>
       <c r="BK149" s="1"/>
       <c r="BL149" s="1"/>
@@ -15374,33 +15616,63 @@
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C150" s="1" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
+      <c r="E150" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="G150" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
+      <c r="I150" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
+      <c r="L150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
+      <c r="S150" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="T150" s="1"/>
-      <c r="U150" s="1"/>
-      <c r="V150" s="1"/>
-      <c r="W150" s="1"/>
-      <c r="X150" s="1"/>
-      <c r="Y150" s="1"/>
-      <c r="Z150" s="1"/>
+      <c r="U150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="X150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z150" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
       <c r="AC150" s="1"/>
@@ -15408,17 +15680,35 @@
       <c r="AE150" s="1"/>
       <c r="AF150" s="1"/>
       <c r="AG150" s="1"/>
-      <c r="AH150" s="1"/>
+      <c r="AH150" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="AI150" s="1"/>
       <c r="AJ150" s="1"/>
-      <c r="AK150" s="1"/>
-      <c r="AL150" s="1"/>
-      <c r="AM150" s="1"/>
-      <c r="AN150" s="1"/>
-      <c r="AO150" s="1"/>
-      <c r="AP150" s="1"/>
-      <c r="AQ150" s="1"/>
-      <c r="AR150" s="1"/>
+      <c r="AK150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ150" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR150" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="AS150" s="1"/>
       <c r="AT150" s="1"/>
       <c r="AU150" s="1"/>
@@ -15457,12 +15747,12 @@
         <v>149</v>
       </c>
       <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="C151" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -15543,7 +15833,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -15555,9 +15845,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
-      <c r="Q152" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
@@ -15625,10 +15913,10 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -15639,7 +15927,9 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
+      <c r="Q153" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
@@ -15705,14 +15995,12 @@
         <v>152</v>
       </c>
       <c r="B154" s="1"/>
-      <c r="C154" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="E154" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -15723,13 +16011,9 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
-      <c r="Q154" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
-      <c r="S154" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="S154" s="1"/>
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
       <c r="V154" s="1"/>
@@ -15737,32 +16021,16 @@
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
-      <c r="AA154" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
       <c r="AC154" s="1"/>
-      <c r="AD154" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE154" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF154" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG154" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH154" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI154" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ154" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="AD154" s="1"/>
+      <c r="AE154" s="1"/>
+      <c r="AF154" s="1"/>
+      <c r="AG154" s="1"/>
+      <c r="AH154" s="1"/>
+      <c r="AI154" s="1"/>
+      <c r="AJ154" s="1"/>
       <c r="AK154" s="1"/>
       <c r="AL154" s="1"/>
       <c r="AM154" s="1"/>
@@ -15809,11 +16077,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="C155" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -15825,9 +16095,13 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
+      <c r="Q155" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="R155" s="1"/>
-      <c r="S155" s="1"/>
+      <c r="S155" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
       <c r="V155" s="1"/>
@@ -15835,16 +16109,32 @@
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
-      <c r="AA155" s="1"/>
+      <c r="AA155" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="AB155" s="1"/>
       <c r="AC155" s="1"/>
-      <c r="AD155" s="1"/>
-      <c r="AE155" s="1"/>
-      <c r="AF155" s="1"/>
-      <c r="AG155" s="1"/>
-      <c r="AH155" s="1"/>
-      <c r="AI155" s="1"/>
-      <c r="AJ155" s="1"/>
+      <c r="AD155" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE155" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF155" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG155" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH155" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI155" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ155" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="AK155" s="1"/>
       <c r="AL155" s="1"/>
       <c r="AM155" s="1"/>
@@ -15895,7 +16185,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -15973,12 +16263,12 @@
         <v>155</v>
       </c>
       <c r="B157" s="1"/>
-      <c r="C157" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -16054,22 +16344,16 @@
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="B158" s="1"/>
       <c r="C158" s="1" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="D158" s="1"/>
-      <c r="E158" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -16079,66 +16363,32 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
-      <c r="S158" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="S158" s="1"/>
       <c r="T158" s="1"/>
-      <c r="U158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="V158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="X158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z158" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
+      <c r="Y158" s="1"/>
+      <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
-      <c r="AB158" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="AB158" s="1"/>
       <c r="AC158" s="1"/>
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
       <c r="AF158" s="1"/>
       <c r="AG158" s="1"/>
-      <c r="AH158" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="AH158" s="1"/>
       <c r="AI158" s="1"/>
       <c r="AJ158" s="1"/>
-      <c r="AK158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ158" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR158" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="AK158" s="1"/>
+      <c r="AL158" s="1"/>
+      <c r="AM158" s="1"/>
+      <c r="AN158" s="1"/>
+      <c r="AO158" s="1"/>
+      <c r="AP158" s="1"/>
+      <c r="AQ158" s="1"/>
+      <c r="AR158" s="1"/>
       <c r="AS158" s="1"/>
       <c r="AT158" s="1"/>
       <c r="AU158" s="1"/>
@@ -16176,51 +16426,101 @@
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+      <c r="B159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G159" s="1"/>
+      <c r="E159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
+      <c r="I159" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
+      <c r="L159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
+      <c r="S159" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="T159" s="1"/>
-      <c r="U159" s="1"/>
-      <c r="V159" s="1"/>
-      <c r="W159" s="1"/>
-      <c r="X159" s="1"/>
-      <c r="Y159" s="1"/>
-      <c r="Z159" s="1"/>
+      <c r="U159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="X159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z159" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="AA159" s="1"/>
-      <c r="AB159" s="1"/>
+      <c r="AB159" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="AC159" s="1"/>
       <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
       <c r="AF159" s="1"/>
       <c r="AG159" s="1"/>
-      <c r="AH159" s="1"/>
+      <c r="AH159" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
-      <c r="AK159" s="1"/>
-      <c r="AL159" s="1"/>
-      <c r="AM159" s="1"/>
-      <c r="AN159" s="1"/>
-      <c r="AO159" s="1"/>
-      <c r="AP159" s="1"/>
-      <c r="AQ159" s="1"/>
-      <c r="AR159" s="1"/>
+      <c r="AK159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ159" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR159" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="AS159" s="1"/>
       <c r="AT159" s="1"/>
       <c r="AU159" s="1"/>
@@ -16263,7 +16563,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -16275,9 +16575,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
-      <c r="Q160" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
@@ -16346,7 +16644,9 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="F161" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -16357,11 +16657,11 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
+      <c r="Q161" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="R161" s="1"/>
-      <c r="S161" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="S161" s="1"/>
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
       <c r="V161" s="1"/>
@@ -16372,18 +16672,10 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
       <c r="AC161" s="1"/>
-      <c r="AD161" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE161" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF161" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG161" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="AD161" s="1"/>
+      <c r="AE161" s="1"/>
+      <c r="AF161" s="1"/>
+      <c r="AG161" s="1"/>
       <c r="AH161" s="1"/>
       <c r="AI161" s="1"/>
       <c r="AJ161" s="1"/>
@@ -16450,7 +16742,7 @@
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
@@ -16463,13 +16755,17 @@
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
       <c r="AD162" s="1" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="AE162" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF162" s="1"/>
-      <c r="AG162" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="AF162" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG162" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
       <c r="AJ162" s="1"/>
@@ -16506,9 +16802,7 @@
       <c r="BO162" s="1"/>
       <c r="BP162" s="1"/>
       <c r="BQ162" s="1"/>
-      <c r="BR162" s="1">
-        <v>184</v>
-      </c>
+      <c r="BR162" s="1"/>
       <c r="BS162" s="1"/>
       <c r="BT162" s="1"/>
       <c r="BU162" s="1"/>
@@ -16538,7 +16832,7 @@
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
@@ -16551,20 +16845,14 @@
       <c r="AB163" s="1"/>
       <c r="AC163" s="1"/>
       <c r="AD163" s="1" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="AE163" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF163" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG163" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH163" s="1" t="s">
-        <v>241</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="AF163" s="1"/>
+      <c r="AG163" s="1"/>
+      <c r="AH163" s="1"/>
       <c r="AI163" s="1"/>
       <c r="AJ163" s="1"/>
       <c r="AK163" s="1"/>
@@ -16600,7 +16888,9 @@
       <c r="BO163" s="1"/>
       <c r="BP163" s="1"/>
       <c r="BQ163" s="1"/>
-      <c r="BR163" s="1"/>
+      <c r="BR163" s="1">
+        <v>184</v>
+      </c>
       <c r="BS163" s="1"/>
       <c r="BT163" s="1"/>
       <c r="BU163" s="1"/>
@@ -16630,7 +16920,7 @@
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
@@ -16643,19 +16933,19 @@
       <c r="AB164" s="1"/>
       <c r="AC164" s="1"/>
       <c r="AD164" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="AE164" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="AF164" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="AG164" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="AH164" s="1" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="AI164" s="1"/>
       <c r="AJ164" s="1"/>
@@ -16722,7 +17012,7 @@
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
@@ -16735,26 +17025,22 @@
       <c r="AB165" s="1"/>
       <c r="AC165" s="1"/>
       <c r="AD165" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="AE165" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="AF165" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="AG165" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="AH165" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI165" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AJ165" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="AI165" s="1"/>
+      <c r="AJ165" s="1"/>
       <c r="AK165" s="1"/>
       <c r="AL165" s="1"/>
       <c r="AM165" s="1"/>
@@ -16818,7 +17104,7 @@
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
@@ -16831,25 +17117,25 @@
       <c r="AB166" s="1"/>
       <c r="AC166" s="1"/>
       <c r="AD166" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="AE166" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="AF166" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="AG166" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="AH166" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="AI166" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="AJ166" s="1" t="s">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="AK166" s="1"/>
       <c r="AL166" s="1"/>
@@ -16914,7 +17200,7 @@
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
@@ -16927,25 +17213,25 @@
       <c r="AB167" s="1"/>
       <c r="AC167" s="1"/>
       <c r="AD167" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="AE167" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="AF167" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="AG167" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="AH167" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="AI167" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="AJ167" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="AK167" s="1"/>
       <c r="AL167" s="1"/>
@@ -17010,7 +17296,7 @@
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
@@ -17019,33 +17305,29 @@
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
-      <c r="AA168" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
-      <c r="AC168" s="1" t="s">
-        <v>254</v>
-      </c>
+      <c r="AC168" s="1"/>
       <c r="AD168" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AE168" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AG168" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AH168" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AI168" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AJ168" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK168" s="1"/>
       <c r="AL168" s="1"/>
@@ -17110,7 +17392,7 @@
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
@@ -17120,30 +17402,32 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
       <c r="AA169" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AB169" s="1"/>
-      <c r="AC169" s="1"/>
+      <c r="AC169" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="AD169" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AE169" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AF169" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AG169" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AH169" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AI169" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AJ169" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AK169" s="1"/>
       <c r="AL169" s="1"/>
@@ -17194,9 +17478,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -17209,7 +17491,9 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
+      <c r="S170" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
       <c r="V170" s="1"/>
@@ -17217,16 +17501,32 @@
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
-      <c r="AA170" s="1"/>
+      <c r="AA170" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="AB170" s="1"/>
       <c r="AC170" s="1"/>
-      <c r="AD170" s="1"/>
-      <c r="AE170" s="1"/>
-      <c r="AF170" s="1"/>
-      <c r="AG170" s="1"/>
-      <c r="AH170" s="1"/>
-      <c r="AI170" s="1"/>
-      <c r="AJ170" s="1"/>
+      <c r="AD170" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE170" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF170" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG170" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH170" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI170" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ170" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="AK170" s="1"/>
       <c r="AL170" s="1"/>
       <c r="AM170" s="1"/>
@@ -17277,7 +17577,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -17359,7 +17659,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -17436,40 +17736,26 @@
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="B173" s="1"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="F173" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
-      <c r="L173" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M173" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O173" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
-      <c r="S173" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="S173" s="1"/>
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
       <c r="V173" s="1"/>
@@ -17533,36 +17819,38 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
+      <c r="G174" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
@@ -17627,11 +17915,11 @@
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -17641,22 +17929,22 @@
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
@@ -17720,26 +18008,38 @@
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" s="1"/>
+      <c r="B176" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="D176" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-      <c r="J176" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="J176" s="1"/>
       <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
+      <c r="L176" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
-      <c r="S176" s="1"/>
+      <c r="S176" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
       <c r="V176" s="1"/>
@@ -17802,33 +18102,63 @@
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="B177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
+      <c r="E177" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
+      <c r="I177" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
+      <c r="L177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
+      <c r="S177" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="T177" s="1"/>
-      <c r="U177" s="1"/>
-      <c r="V177" s="1"/>
-      <c r="W177" s="1"/>
-      <c r="X177" s="1"/>
-      <c r="Y177" s="1"/>
-      <c r="Z177" s="1"/>
+      <c r="U177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="V177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="X177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z177" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
       <c r="AC177" s="1"/>
@@ -17836,17 +18166,35 @@
       <c r="AE177" s="1"/>
       <c r="AF177" s="1"/>
       <c r="AG177" s="1"/>
-      <c r="AH177" s="1"/>
+      <c r="AH177" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="AI177" s="1"/>
       <c r="AJ177" s="1"/>
-      <c r="AK177" s="1"/>
-      <c r="AL177" s="1"/>
-      <c r="AM177" s="1"/>
-      <c r="AN177" s="1"/>
-      <c r="AO177" s="1"/>
-      <c r="AP177" s="1"/>
-      <c r="AQ177" s="1"/>
-      <c r="AR177" s="1"/>
+      <c r="AK177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ177" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR177" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="AS177" s="1"/>
       <c r="AT177" s="1"/>
       <c r="AU177" s="1"/>
@@ -17864,9 +18212,7 @@
       <c r="BG177" s="1"/>
       <c r="BH177" s="1"/>
       <c r="BI177" s="1"/>
-      <c r="BJ177" s="1">
-        <v>189</v>
-      </c>
+      <c r="BJ177" s="1"/>
       <c r="BK177" s="1"/>
       <c r="BL177" s="1"/>
       <c r="BM177" s="1"/>
@@ -17887,55 +18233,65 @@
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
+      <c r="G178" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
+      <c r="L178" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T178" s="1"/>
       <c r="U178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA178" s="1"/>
       <c r="AB178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC178" s="1"/>
       <c r="AD178" s="1"/>
@@ -17943,33 +18299,33 @@
       <c r="AF178" s="1"/>
       <c r="AG178" s="1"/>
       <c r="AH178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI178" s="1"/>
       <c r="AJ178" s="1"/>
       <c r="AK178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AN178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AO178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AP178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AQ178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AR178" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS178" s="1"/>
       <c r="AT178" s="1"/>
@@ -18009,12 +18365,12 @@
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -18045,33 +18401,33 @@
       <c r="AF179" s="1"/>
       <c r="AG179" s="1"/>
       <c r="AH179" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI179" s="1"/>
       <c r="AJ179" s="1"/>
       <c r="AK179" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL179" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM179" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN179" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO179" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP179" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ179" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR179" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS179" s="1"/>
       <c r="AT179" s="1"/>
@@ -18094,12 +18450,12 @@
       <c r="BK179" s="1"/>
       <c r="BL179" s="1"/>
       <c r="BM179" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BN179" s="1"/>
       <c r="BO179" s="1"/>
       <c r="BP179" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BQ179" s="1">
         <v>83</v>
@@ -18132,12 +18488,12 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -18168,33 +18524,33 @@
       <c r="AF180" s="1"/>
       <c r="AG180" s="1"/>
       <c r="AH180" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI180" s="1"/>
       <c r="AJ180" s="1"/>
       <c r="AK180" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL180" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM180" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN180" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO180" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP180" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ180" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR180" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS180" s="1"/>
       <c r="AT180" s="1"/>
@@ -18217,12 +18573,12 @@
       <c r="BK180" s="1"/>
       <c r="BL180" s="1"/>
       <c r="BM180" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BN180" s="1"/>
       <c r="BO180" s="1"/>
       <c r="BP180" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BQ180" s="1">
         <v>83</v>
@@ -18255,20 +18611,20 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -18282,10 +18638,10 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
       <c r="U181" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="V181" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="W181" s="1" t="s">
         <v>127</v>
@@ -18297,7 +18653,7 @@
         <v>129</v>
       </c>
       <c r="Z181" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
@@ -18307,33 +18663,33 @@
       <c r="AF181" s="1"/>
       <c r="AG181" s="1"/>
       <c r="AH181" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI181" s="1"/>
       <c r="AJ181" s="1"/>
       <c r="AK181" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL181" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM181" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN181" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO181" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP181" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ181" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR181" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS181" s="1"/>
       <c r="AT181" s="1"/>
@@ -18357,7 +18713,7 @@
       <c r="BJ181" s="1"/>
       <c r="BK181" s="1"/>
       <c r="BL181" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BM181" s="1"/>
       <c r="BN181" s="1"/>
@@ -18396,20 +18752,20 @@
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
@@ -18423,10 +18779,10 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
       <c r="U182" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="V182" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="W182" s="1" t="s">
         <v>127</v>
@@ -18438,7 +18794,7 @@
         <v>129</v>
       </c>
       <c r="Z182" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
@@ -18448,33 +18804,33 @@
       <c r="AF182" s="1"/>
       <c r="AG182" s="1"/>
       <c r="AH182" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI182" s="1"/>
       <c r="AJ182" s="1"/>
       <c r="AK182" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL182" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM182" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN182" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO182" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP182" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ182" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR182" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS182" s="1"/>
       <c r="AT182" s="1"/>
@@ -18537,12 +18893,12 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -18573,33 +18929,33 @@
       <c r="AF183" s="1"/>
       <c r="AG183" s="1"/>
       <c r="AH183" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI183" s="1"/>
       <c r="AJ183" s="1"/>
       <c r="AK183" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL183" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM183" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN183" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO183" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP183" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ183" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR183" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS183" s="1"/>
       <c r="AT183" s="1"/>
@@ -18659,7 +19015,7 @@
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -18740,12 +19096,12 @@
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -18776,33 +19132,33 @@
       <c r="AF185" s="1"/>
       <c r="AG185" s="1"/>
       <c r="AH185" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI185" s="1"/>
       <c r="AJ185" s="1"/>
       <c r="AK185" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL185" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM185" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN185" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO185" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP185" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ185" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR185" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS185" s="1"/>
       <c r="AT185" s="1"/>
@@ -18830,7 +19186,7 @@
         <v>196</v>
       </c>
       <c r="BP185" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BQ185" s="1">
         <v>83</v>
@@ -18864,12 +19220,12 @@
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -18882,11 +19238,11 @@
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R186" s="1"/>
       <c r="S186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
@@ -18896,30 +19252,30 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
       <c r="AA186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB186" s="1"/>
       <c r="AC186" s="1"/>
       <c r="AD186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AH186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AI186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ186" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK186" s="1"/>
       <c r="AL186" s="1"/>
@@ -18967,12 +19323,12 @@
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -19003,33 +19359,33 @@
       <c r="AF187" s="1"/>
       <c r="AG187" s="1"/>
       <c r="AH187" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI187" s="1"/>
       <c r="AJ187" s="1"/>
       <c r="AK187" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL187" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM187" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN187" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO187" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP187" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ187" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR187" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AS187" s="1"/>
       <c r="AT187" s="1"/>
@@ -19105,7 +19461,7 @@
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
@@ -19115,30 +19471,30 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
       <c r="AA188" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB188" s="1"/>
       <c r="AC188" s="1"/>
       <c r="AD188" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AE188" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AF188" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AG188" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AH188" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AI188" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AJ188" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AK188" s="1"/>
       <c r="AL188" s="1"/>
@@ -19193,7 +19549,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -19277,7 +19633,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -19357,13 +19713,13 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
+      <c r="F191" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-      <c r="J191" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
@@ -19440,7 +19796,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -19521,9 +19877,7 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -19536,7 +19890,9 @@
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
-      <c r="S193" s="1"/>
+      <c r="S193" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
       <c r="V193" s="1"/>
@@ -19545,7 +19901,9 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
-      <c r="AB193" s="1"/>
+      <c r="AB193" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="AC193" s="1"/>
       <c r="AD193" s="1"/>
       <c r="AE193" s="1"/>
@@ -19583,7 +19941,9 @@
       <c r="BK193" s="1"/>
       <c r="BL193" s="1"/>
       <c r="BM193" s="1"/>
-      <c r="BN193" s="1"/>
+      <c r="BN193" s="1">
+        <v>201</v>
+      </c>
       <c r="BO193" s="1"/>
       <c r="BP193" s="1"/>
       <c r="BQ193" s="1"/>
@@ -19601,7 +19961,9 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
+      <c r="E194" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -19616,7 +19978,7 @@
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
@@ -19625,18 +19987,34 @@
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
-      <c r="AA194" s="1"/>
-      <c r="AB194" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC194" s="1"/>
-      <c r="AD194" s="1"/>
-      <c r="AE194" s="1"/>
-      <c r="AF194" s="1"/>
-      <c r="AG194" s="1"/>
-      <c r="AH194" s="1"/>
-      <c r="AI194" s="1"/>
-      <c r="AJ194" s="1"/>
+      <c r="AA194" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB194" s="1"/>
+      <c r="AC194" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ194" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="AK194" s="1"/>
       <c r="AL194" s="1"/>
       <c r="AM194" s="1"/>
@@ -19666,9 +20044,7 @@
       <c r="BK194" s="1"/>
       <c r="BL194" s="1"/>
       <c r="BM194" s="1"/>
-      <c r="BN194" s="1">
-        <v>201</v>
-      </c>
+      <c r="BN194" s="1"/>
       <c r="BO194" s="1"/>
       <c r="BP194" s="1"/>
       <c r="BQ194" s="1"/>
@@ -19684,55 +20060,65 @@
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
+      <c r="G195" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="H195" s="1"/>
       <c r="I195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
-      <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
+      <c r="L195" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T195" s="1"/>
       <c r="U195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA195" s="1"/>
       <c r="AB195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AC195" s="1"/>
       <c r="AD195" s="1"/>
@@ -19740,33 +20126,33 @@
       <c r="AF195" s="1"/>
       <c r="AG195" s="1"/>
       <c r="AH195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AI195" s="1"/>
       <c r="AJ195" s="1"/>
       <c r="AK195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AM195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AP195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AR195" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS195" s="1"/>
       <c r="AT195" s="1"/>
@@ -19806,7 +20192,7 @@
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -19886,55 +20272,65 @@
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
+      <c r="G197" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="H197" s="1"/>
       <c r="I197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
+      <c r="L197" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T197" s="1"/>
       <c r="U197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA197" s="1"/>
       <c r="AB197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC197" s="1"/>
       <c r="AD197" s="1"/>
@@ -19942,33 +20338,33 @@
       <c r="AF197" s="1"/>
       <c r="AG197" s="1"/>
       <c r="AH197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AI197" s="1"/>
       <c r="AJ197" s="1"/>
       <c r="AK197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AL197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AN197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AO197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AP197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AR197" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS197" s="1"/>
       <c r="AT197" s="1"/>
@@ -20011,7 +20407,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -20088,31 +20484,31 @@
         <v>197</v>
       </c>
       <c r="S199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AI199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ199" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="200" spans="1:77" x14ac:dyDescent="0.25">
@@ -20120,28 +20516,28 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="201" spans="1:77" x14ac:dyDescent="0.25">
@@ -20178,67 +20574,82 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E202" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="G202" t="s">
+        <v>161</v>
       </c>
       <c r="I202" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="L202" t="s">
+        <v>161</v>
+      </c>
+      <c r="M202" t="s">
+        <v>161</v>
+      </c>
+      <c r="N202" t="s">
+        <v>161</v>
+      </c>
+      <c r="O202" t="s">
+        <v>161</v>
       </c>
       <c r="S202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AH202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AK202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AN202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AP202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AQ202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AR202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="203" spans="1:77" x14ac:dyDescent="0.25">
@@ -20246,67 +20657,82 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E203" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="G203" t="s">
+        <v>182</v>
       </c>
       <c r="I203" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="L203" t="s">
+        <v>182</v>
+      </c>
+      <c r="M203" t="s">
+        <v>182</v>
+      </c>
+      <c r="N203" t="s">
+        <v>182</v>
+      </c>
+      <c r="O203" t="s">
+        <v>182</v>
       </c>
       <c r="S203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AH203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AL203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AN203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AO203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AP203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AQ203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AR203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="204" spans="1:77" x14ac:dyDescent="0.25">
@@ -20314,22 +20740,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="C204" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E204" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I204" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="U204" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="V204" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="W204" t="s">
         <v>127</v>
@@ -20341,34 +20767,34 @@
         <v>129</v>
       </c>
       <c r="Z204" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AH204" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AK204" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL204" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM204" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN204" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO204" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP204" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ204" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR204" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="BG204">
         <v>82</v>
@@ -20409,67 +20835,82 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E205" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="G205" t="s">
+        <v>136</v>
       </c>
       <c r="I205" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="L205" t="s">
+        <v>136</v>
+      </c>
+      <c r="M205" t="s">
+        <v>136</v>
+      </c>
+      <c r="N205" t="s">
+        <v>136</v>
+      </c>
+      <c r="O205" t="s">
+        <v>136</v>
       </c>
       <c r="S205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AL205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AP205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AQ205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AR205" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206" spans="1:77" x14ac:dyDescent="0.25">
@@ -20477,37 +20918,37 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E206" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AH206" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AK206" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL206" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM206" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN206" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO206" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP206" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ206" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR206" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="BP206">
         <v>206</v>
@@ -20542,67 +20983,82 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E207" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="G207" t="s">
+        <v>163</v>
       </c>
       <c r="I207" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="L207" t="s">
+        <v>163</v>
+      </c>
+      <c r="M207" t="s">
+        <v>163</v>
+      </c>
+      <c r="N207" t="s">
+        <v>163</v>
+      </c>
+      <c r="O207" t="s">
+        <v>163</v>
       </c>
       <c r="S207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AH207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AN207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AO207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AP207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AQ207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AR207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:77" x14ac:dyDescent="0.25">
@@ -20610,7 +21066,7 @@
         <v>206</v>
       </c>
       <c r="F208" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:77" x14ac:dyDescent="0.25">
@@ -20618,22 +21074,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="C209" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E209" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I209" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="U209" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="V209" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="W209" t="s">
         <v>127</v>
@@ -20645,34 +21101,34 @@
         <v>129</v>
       </c>
       <c r="Z209" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AH209" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AK209" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AL209" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM209" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN209" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AO209" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AP209" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AQ209" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AR209" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="BG209">
         <v>82</v>
@@ -20713,67 +21169,82 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E210" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="G210" t="s">
+        <v>160</v>
       </c>
       <c r="I210" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="L210" t="s">
+        <v>160</v>
+      </c>
+      <c r="M210" t="s">
+        <v>160</v>
+      </c>
+      <c r="N210" t="s">
+        <v>160</v>
+      </c>
+      <c r="O210" t="s">
+        <v>160</v>
       </c>
       <c r="S210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AH210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AM210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AN210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AP210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AR210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/mimij/mimij/AnalisiSintactico/Tabla.xlsx
+++ b/mimij/mimij/AnalisiSintactico/Tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derly\Documents\Universidad\Sexto ciclo\Compis\Proyecto\Traduccion\Traduccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A17193B-D132-4549-8AA1-B04A2865B4BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A52BD4-D8E6-4545-AF37-715B7707838D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{924D8882-C0E7-4292-B0BC-53CB839BE7C0}"/>
   </bookViews>
@@ -1264,7 +1264,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BY210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:BY210"/>
     </sheetView>
   </sheetViews>
@@ -1359,10 +1359,10 @@
         <v>25</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>28</v>
